--- a/excel/finished/6高炉/炉顶装料作业日报表.xlsx
+++ b/excel/finished/6高炉/炉顶装料作业日报表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\6高炉\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="9420"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="_metadata" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -206,10 +201,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -368,7 +362,7 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -677,7 +671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,7 +682,7 @@
   <dimension ref="A1:M1802"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J1" sqref="J1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,7 +704,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="16">
-        <f>_metadata!B1</f>
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
       <c r="K1" s="16"/>
@@ -59256,6 +59250,2076 @@
     </row>
   </sheetData>
   <mergeCells count="2102">
+    <mergeCell ref="K1323:K1328"/>
+    <mergeCell ref="K1317:K1322"/>
+    <mergeCell ref="A1341:A1346"/>
+    <mergeCell ref="B1341:B1346"/>
+    <mergeCell ref="C1341:C1346"/>
+    <mergeCell ref="D1341:D1346"/>
+    <mergeCell ref="K1341:K1346"/>
+    <mergeCell ref="K1335:K1340"/>
+    <mergeCell ref="A1461:A1466"/>
+    <mergeCell ref="B1461:B1466"/>
+    <mergeCell ref="C1461:C1466"/>
+    <mergeCell ref="D1461:D1466"/>
+    <mergeCell ref="A1455:A1460"/>
+    <mergeCell ref="B1455:B1460"/>
+    <mergeCell ref="C1455:C1460"/>
+    <mergeCell ref="D1455:D1460"/>
+    <mergeCell ref="A1425:A1430"/>
+    <mergeCell ref="A1443:A1448"/>
+    <mergeCell ref="B1443:B1448"/>
+    <mergeCell ref="C1443:C1448"/>
+    <mergeCell ref="C1407:C1412"/>
+    <mergeCell ref="B1425:B1430"/>
+    <mergeCell ref="C1425:C1430"/>
+    <mergeCell ref="A1431:A1436"/>
+    <mergeCell ref="B1431:B1436"/>
+    <mergeCell ref="C1431:C1436"/>
+    <mergeCell ref="A1437:A1442"/>
+    <mergeCell ref="B1437:B1442"/>
+    <mergeCell ref="J1323:J1328"/>
+    <mergeCell ref="J1341:J1346"/>
+    <mergeCell ref="J1335:J1340"/>
+    <mergeCell ref="J1455:J1460"/>
+    <mergeCell ref="C1215:C1220"/>
+    <mergeCell ref="D1215:D1220"/>
+    <mergeCell ref="D1167:D1172"/>
+    <mergeCell ref="B1191:B1196"/>
+    <mergeCell ref="C1191:C1196"/>
+    <mergeCell ref="D1191:D1196"/>
+    <mergeCell ref="D1185:D1190"/>
+    <mergeCell ref="A1197:A1202"/>
+    <mergeCell ref="B1197:B1202"/>
+    <mergeCell ref="A1395:A1400"/>
+    <mergeCell ref="B1395:B1400"/>
+    <mergeCell ref="C1395:C1400"/>
+    <mergeCell ref="D1395:D1400"/>
+    <mergeCell ref="A1185:A1190"/>
+    <mergeCell ref="A1203:A1208"/>
+    <mergeCell ref="B1203:B1208"/>
+    <mergeCell ref="C1203:C1208"/>
+    <mergeCell ref="A1245:A1250"/>
+    <mergeCell ref="B1245:B1250"/>
+    <mergeCell ref="C1239:C1244"/>
+    <mergeCell ref="D1239:D1244"/>
+    <mergeCell ref="A1299:A1304"/>
+    <mergeCell ref="A1305:A1310"/>
+    <mergeCell ref="A1365:A1370"/>
+    <mergeCell ref="B1365:B1370"/>
+    <mergeCell ref="C1353:C1358"/>
+    <mergeCell ref="D1353:D1358"/>
+    <mergeCell ref="B1383:B1388"/>
+    <mergeCell ref="C1383:C1388"/>
+    <mergeCell ref="D1383:D1388"/>
+    <mergeCell ref="C1323:C1328"/>
+    <mergeCell ref="D1323:D1328"/>
+    <mergeCell ref="A1029:A1034"/>
+    <mergeCell ref="A1125:A1130"/>
+    <mergeCell ref="B1125:B1130"/>
+    <mergeCell ref="C1113:C1118"/>
+    <mergeCell ref="D1113:D1118"/>
+    <mergeCell ref="B1143:B1148"/>
+    <mergeCell ref="C1143:C1148"/>
+    <mergeCell ref="D1143:D1148"/>
+    <mergeCell ref="C1083:C1088"/>
+    <mergeCell ref="D1083:D1088"/>
+    <mergeCell ref="K1083:K1088"/>
+    <mergeCell ref="K1077:K1082"/>
+    <mergeCell ref="A1101:A1106"/>
+    <mergeCell ref="B1101:B1106"/>
+    <mergeCell ref="C1101:C1106"/>
+    <mergeCell ref="D1101:D1106"/>
+    <mergeCell ref="A1077:A1082"/>
+    <mergeCell ref="B1077:B1082"/>
+    <mergeCell ref="C1077:C1082"/>
+    <mergeCell ref="D1077:D1082"/>
+    <mergeCell ref="A1041:A1046"/>
+    <mergeCell ref="A1035:A1040"/>
+    <mergeCell ref="A1053:A1058"/>
+    <mergeCell ref="B1053:B1058"/>
+    <mergeCell ref="C1053:C1058"/>
+    <mergeCell ref="D1053:D1058"/>
+    <mergeCell ref="A1107:A1112"/>
+    <mergeCell ref="B1107:B1112"/>
+    <mergeCell ref="C1107:C1112"/>
+    <mergeCell ref="D1107:D1112"/>
+    <mergeCell ref="K1107:K1112"/>
+    <mergeCell ref="A1095:A1100"/>
+    <mergeCell ref="C843:C848"/>
+    <mergeCell ref="D843:D848"/>
+    <mergeCell ref="K843:K848"/>
+    <mergeCell ref="K837:K842"/>
+    <mergeCell ref="A861:A866"/>
+    <mergeCell ref="B861:B866"/>
+    <mergeCell ref="C861:C866"/>
+    <mergeCell ref="D861:D866"/>
+    <mergeCell ref="J963:J968"/>
+    <mergeCell ref="J981:J986"/>
+    <mergeCell ref="A975:A980"/>
+    <mergeCell ref="B975:B980"/>
+    <mergeCell ref="C975:C980"/>
+    <mergeCell ref="D975:D980"/>
+    <mergeCell ref="C927:C932"/>
+    <mergeCell ref="B945:B950"/>
+    <mergeCell ref="C945:C950"/>
+    <mergeCell ref="A951:A956"/>
+    <mergeCell ref="A981:A986"/>
+    <mergeCell ref="B981:B986"/>
+    <mergeCell ref="C981:C986"/>
+    <mergeCell ref="B951:B956"/>
+    <mergeCell ref="C951:C956"/>
+    <mergeCell ref="A957:A962"/>
+    <mergeCell ref="B957:B962"/>
+    <mergeCell ref="A945:A950"/>
+    <mergeCell ref="A963:A968"/>
+    <mergeCell ref="B963:B968"/>
+    <mergeCell ref="C963:C968"/>
+    <mergeCell ref="D981:D986"/>
+    <mergeCell ref="D951:D956"/>
+    <mergeCell ref="D945:D950"/>
+    <mergeCell ref="B705:B710"/>
+    <mergeCell ref="C705:C710"/>
+    <mergeCell ref="A711:A716"/>
+    <mergeCell ref="D741:D746"/>
+    <mergeCell ref="A735:A740"/>
+    <mergeCell ref="B735:B740"/>
+    <mergeCell ref="C735:C740"/>
+    <mergeCell ref="D735:D740"/>
+    <mergeCell ref="D687:D692"/>
+    <mergeCell ref="B711:B716"/>
+    <mergeCell ref="C711:C716"/>
+    <mergeCell ref="D711:D716"/>
+    <mergeCell ref="D705:D710"/>
+    <mergeCell ref="A717:A722"/>
+    <mergeCell ref="B717:B722"/>
+    <mergeCell ref="A915:A920"/>
+    <mergeCell ref="B915:B920"/>
+    <mergeCell ref="C915:C920"/>
+    <mergeCell ref="D915:D920"/>
+    <mergeCell ref="A705:A710"/>
+    <mergeCell ref="A723:A728"/>
+    <mergeCell ref="B723:B728"/>
+    <mergeCell ref="C723:C728"/>
+    <mergeCell ref="A765:A770"/>
+    <mergeCell ref="B765:B770"/>
+    <mergeCell ref="C759:C764"/>
+    <mergeCell ref="D759:D764"/>
+    <mergeCell ref="C765:C770"/>
+    <mergeCell ref="D765:D770"/>
+    <mergeCell ref="C777:C782"/>
+    <mergeCell ref="D777:D782"/>
+    <mergeCell ref="A885:A890"/>
+    <mergeCell ref="C369:C374"/>
+    <mergeCell ref="D369:D374"/>
+    <mergeCell ref="J369:J374"/>
+    <mergeCell ref="A369:A374"/>
+    <mergeCell ref="B369:B374"/>
+    <mergeCell ref="A387:A392"/>
+    <mergeCell ref="B387:B392"/>
+    <mergeCell ref="A375:A380"/>
+    <mergeCell ref="B375:B380"/>
+    <mergeCell ref="J375:J380"/>
+    <mergeCell ref="J381:J386"/>
+    <mergeCell ref="A381:A386"/>
+    <mergeCell ref="B381:B386"/>
+    <mergeCell ref="C381:C386"/>
+    <mergeCell ref="A645:A650"/>
+    <mergeCell ref="B645:B650"/>
+    <mergeCell ref="C633:C638"/>
+    <mergeCell ref="D633:D638"/>
+    <mergeCell ref="A621:A626"/>
+    <mergeCell ref="B621:B626"/>
+    <mergeCell ref="C621:C626"/>
+    <mergeCell ref="D621:D626"/>
+    <mergeCell ref="A597:A602"/>
+    <mergeCell ref="B597:B602"/>
+    <mergeCell ref="C597:C602"/>
+    <mergeCell ref="D597:D602"/>
+    <mergeCell ref="J597:J602"/>
+    <mergeCell ref="J615:J620"/>
+    <mergeCell ref="J621:J626"/>
+    <mergeCell ref="A603:A608"/>
+    <mergeCell ref="B603:B608"/>
+    <mergeCell ref="C603:C608"/>
+    <mergeCell ref="C375:C380"/>
+    <mergeCell ref="D375:D380"/>
+    <mergeCell ref="C483:C488"/>
+    <mergeCell ref="C447:C452"/>
+    <mergeCell ref="B465:B470"/>
+    <mergeCell ref="C465:C470"/>
+    <mergeCell ref="A471:A476"/>
+    <mergeCell ref="B471:B476"/>
+    <mergeCell ref="C471:C476"/>
+    <mergeCell ref="A477:A482"/>
+    <mergeCell ref="B477:B482"/>
+    <mergeCell ref="A447:A452"/>
+    <mergeCell ref="B447:B452"/>
+    <mergeCell ref="A465:A470"/>
+    <mergeCell ref="A483:A488"/>
+    <mergeCell ref="B483:B488"/>
+    <mergeCell ref="B423:B428"/>
+    <mergeCell ref="C423:C428"/>
+    <mergeCell ref="D423:D428"/>
+    <mergeCell ref="A435:A440"/>
+    <mergeCell ref="B435:B440"/>
+    <mergeCell ref="C435:C440"/>
+    <mergeCell ref="D435:D440"/>
+    <mergeCell ref="A405:A410"/>
+    <mergeCell ref="B405:B410"/>
+    <mergeCell ref="A441:A446"/>
+    <mergeCell ref="B441:B446"/>
+    <mergeCell ref="C441:C446"/>
+    <mergeCell ref="D441:D446"/>
+    <mergeCell ref="D465:D470"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="K249:K254"/>
+    <mergeCell ref="A303:A308"/>
+    <mergeCell ref="B303:B308"/>
+    <mergeCell ref="C303:C308"/>
+    <mergeCell ref="D303:D308"/>
+    <mergeCell ref="A297:A302"/>
+    <mergeCell ref="B297:B302"/>
+    <mergeCell ref="C297:C302"/>
+    <mergeCell ref="D297:D302"/>
+    <mergeCell ref="A261:A266"/>
+    <mergeCell ref="B261:B266"/>
+    <mergeCell ref="C273:C278"/>
+    <mergeCell ref="D273:D278"/>
+    <mergeCell ref="J273:J278"/>
+    <mergeCell ref="K273:K278"/>
+    <mergeCell ref="A291:A296"/>
+    <mergeCell ref="C261:C266"/>
+    <mergeCell ref="D261:D266"/>
+    <mergeCell ref="C249:C254"/>
+    <mergeCell ref="D249:D254"/>
+    <mergeCell ref="J249:J254"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="K111:K116"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="D183:D188"/>
+    <mergeCell ref="J183:J188"/>
+    <mergeCell ref="K183:K188"/>
+    <mergeCell ref="A189:A194"/>
+    <mergeCell ref="B189:B194"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K159:K164"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="J243:J248"/>
+    <mergeCell ref="J261:J266"/>
+    <mergeCell ref="J201:J206"/>
+    <mergeCell ref="J219:J224"/>
+    <mergeCell ref="J159:J164"/>
+    <mergeCell ref="J117:J122"/>
+    <mergeCell ref="K27:K32"/>
+    <mergeCell ref="K135:K140"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="K39:K44"/>
+    <mergeCell ref="J57:J62"/>
+    <mergeCell ref="K129:K134"/>
+    <mergeCell ref="C141:C146"/>
+    <mergeCell ref="D141:D146"/>
+    <mergeCell ref="J141:J146"/>
+    <mergeCell ref="K141:K146"/>
+    <mergeCell ref="D135:D140"/>
+    <mergeCell ref="J135:J140"/>
+    <mergeCell ref="J81:J86"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="L15:L20"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="D81:D86"/>
+    <mergeCell ref="K81:K86"/>
+    <mergeCell ref="L81:L86"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="J843:J848"/>
+    <mergeCell ref="J861:J866"/>
+    <mergeCell ref="J1203:J1208"/>
+    <mergeCell ref="J1221:J1226"/>
+    <mergeCell ref="J1155:J1160"/>
+    <mergeCell ref="J1143:J1148"/>
+    <mergeCell ref="J1083:J1088"/>
+    <mergeCell ref="J1101:J1106"/>
+    <mergeCell ref="J849:J854"/>
+    <mergeCell ref="J951:J956"/>
+    <mergeCell ref="J945:J950"/>
+    <mergeCell ref="J987:J992"/>
+    <mergeCell ref="J993:J998"/>
+    <mergeCell ref="J1077:J1082"/>
+    <mergeCell ref="J1059:J1064"/>
+    <mergeCell ref="J483:J488"/>
+    <mergeCell ref="J567:J572"/>
+    <mergeCell ref="J687:J692"/>
+    <mergeCell ref="J705:J710"/>
+    <mergeCell ref="J1053:J1058"/>
+    <mergeCell ref="J1107:J1112"/>
+    <mergeCell ref="J1167:J1172"/>
+    <mergeCell ref="J363:J368"/>
+    <mergeCell ref="J351:J356"/>
+    <mergeCell ref="J345:J350"/>
+    <mergeCell ref="J387:J392"/>
+    <mergeCell ref="L39:L44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="J45:J50"/>
+    <mergeCell ref="K45:K50"/>
+    <mergeCell ref="L45:L50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="L51:L56"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="J75:J80"/>
+    <mergeCell ref="K75:K80"/>
+    <mergeCell ref="L75:L80"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="J69:J74"/>
+    <mergeCell ref="K69:K74"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="L27:L32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="K33:K38"/>
+    <mergeCell ref="L33:L38"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="D105:D110"/>
+    <mergeCell ref="J105:J110"/>
+    <mergeCell ref="K105:K110"/>
+    <mergeCell ref="L105:L110"/>
+    <mergeCell ref="K57:K62"/>
+    <mergeCell ref="L57:L62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="J63:J68"/>
+    <mergeCell ref="K63:K68"/>
+    <mergeCell ref="L63:L68"/>
+    <mergeCell ref="L69:L74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="L87:L92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="D93:D98"/>
+    <mergeCell ref="J93:J98"/>
+    <mergeCell ref="K93:K98"/>
+    <mergeCell ref="L93:L98"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="C87:C92"/>
+    <mergeCell ref="D87:D92"/>
+    <mergeCell ref="J87:J92"/>
+    <mergeCell ref="K87:K92"/>
+    <mergeCell ref="D99:D104"/>
+    <mergeCell ref="J99:J104"/>
+    <mergeCell ref="K99:K104"/>
+    <mergeCell ref="L99:L104"/>
+    <mergeCell ref="L111:L116"/>
+    <mergeCell ref="L141:L146"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="B147:B152"/>
+    <mergeCell ref="C147:C152"/>
+    <mergeCell ref="D147:D152"/>
+    <mergeCell ref="J147:J152"/>
+    <mergeCell ref="K147:K152"/>
+    <mergeCell ref="L147:L152"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="L129:L134"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="C135:C140"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="C111:C116"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="J111:J116"/>
+    <mergeCell ref="K117:K122"/>
+    <mergeCell ref="L117:L122"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="D123:D128"/>
+    <mergeCell ref="J123:J128"/>
+    <mergeCell ref="K123:K128"/>
+    <mergeCell ref="L123:L128"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="L153:L158"/>
+    <mergeCell ref="L165:L170"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="C153:C158"/>
+    <mergeCell ref="D153:D158"/>
+    <mergeCell ref="J153:J158"/>
+    <mergeCell ref="K153:K158"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="L159:L164"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="L135:L140"/>
+    <mergeCell ref="C129:C134"/>
+    <mergeCell ref="D177:D182"/>
+    <mergeCell ref="J177:J182"/>
+    <mergeCell ref="K177:K182"/>
+    <mergeCell ref="L177:L182"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="C171:C176"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="J165:J170"/>
+    <mergeCell ref="K165:K170"/>
+    <mergeCell ref="L171:L176"/>
+    <mergeCell ref="K171:K176"/>
+    <mergeCell ref="D129:D134"/>
+    <mergeCell ref="J129:J134"/>
+    <mergeCell ref="C159:C164"/>
+    <mergeCell ref="D159:D164"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="C177:C182"/>
+    <mergeCell ref="D171:D176"/>
+    <mergeCell ref="J171:J176"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="L183:L188"/>
+    <mergeCell ref="A201:A206"/>
+    <mergeCell ref="B201:B206"/>
+    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="K201:K206"/>
+    <mergeCell ref="L201:L206"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="C183:C188"/>
+    <mergeCell ref="L207:L212"/>
+    <mergeCell ref="K189:K194"/>
+    <mergeCell ref="C207:C212"/>
+    <mergeCell ref="D207:D212"/>
+    <mergeCell ref="J207:J212"/>
+    <mergeCell ref="K207:K212"/>
+    <mergeCell ref="L189:L194"/>
+    <mergeCell ref="K195:K200"/>
+    <mergeCell ref="L195:L200"/>
+    <mergeCell ref="C189:C194"/>
+    <mergeCell ref="D189:D194"/>
+    <mergeCell ref="J189:J194"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="K219:K224"/>
+    <mergeCell ref="L219:L224"/>
+    <mergeCell ref="A213:A218"/>
+    <mergeCell ref="B213:B218"/>
+    <mergeCell ref="C213:C218"/>
+    <mergeCell ref="D213:D218"/>
+    <mergeCell ref="J213:J218"/>
+    <mergeCell ref="K213:K218"/>
+    <mergeCell ref="B219:B224"/>
+    <mergeCell ref="C219:C224"/>
+    <mergeCell ref="D219:D224"/>
+    <mergeCell ref="L213:L218"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="D195:D200"/>
+    <mergeCell ref="J195:J200"/>
+    <mergeCell ref="K225:K230"/>
+    <mergeCell ref="L225:L230"/>
+    <mergeCell ref="A219:A224"/>
+    <mergeCell ref="K237:K242"/>
+    <mergeCell ref="L237:L242"/>
+    <mergeCell ref="A231:A236"/>
+    <mergeCell ref="B231:B236"/>
+    <mergeCell ref="C231:C236"/>
+    <mergeCell ref="D231:D236"/>
+    <mergeCell ref="J231:J236"/>
+    <mergeCell ref="A225:A230"/>
+    <mergeCell ref="B225:B230"/>
+    <mergeCell ref="C225:C230"/>
+    <mergeCell ref="D225:D230"/>
+    <mergeCell ref="J225:J230"/>
+    <mergeCell ref="B237:B242"/>
+    <mergeCell ref="A267:A272"/>
+    <mergeCell ref="B267:B272"/>
+    <mergeCell ref="C267:C272"/>
+    <mergeCell ref="D267:D272"/>
+    <mergeCell ref="J267:J272"/>
+    <mergeCell ref="K267:K272"/>
+    <mergeCell ref="A255:A260"/>
+    <mergeCell ref="B255:B260"/>
+    <mergeCell ref="C255:C260"/>
+    <mergeCell ref="D255:D260"/>
+    <mergeCell ref="J255:J260"/>
+    <mergeCell ref="C237:C242"/>
+    <mergeCell ref="D237:D242"/>
+    <mergeCell ref="K261:K266"/>
+    <mergeCell ref="L261:L266"/>
+    <mergeCell ref="L267:L272"/>
+    <mergeCell ref="L279:L284"/>
+    <mergeCell ref="A273:A278"/>
+    <mergeCell ref="B273:B278"/>
+    <mergeCell ref="C285:C290"/>
+    <mergeCell ref="D285:D290"/>
+    <mergeCell ref="J285:J290"/>
+    <mergeCell ref="K285:K290"/>
+    <mergeCell ref="A285:A290"/>
+    <mergeCell ref="B285:B290"/>
+    <mergeCell ref="L285:L290"/>
+    <mergeCell ref="A279:A284"/>
+    <mergeCell ref="B279:B284"/>
+    <mergeCell ref="C279:C284"/>
+    <mergeCell ref="D279:D284"/>
+    <mergeCell ref="J279:J284"/>
+    <mergeCell ref="K279:K284"/>
+    <mergeCell ref="K231:K236"/>
+    <mergeCell ref="L231:L236"/>
+    <mergeCell ref="A237:A242"/>
+    <mergeCell ref="J237:J242"/>
+    <mergeCell ref="L249:L254"/>
+    <mergeCell ref="A243:A248"/>
+    <mergeCell ref="B243:B248"/>
+    <mergeCell ref="C243:C248"/>
+    <mergeCell ref="D243:D248"/>
+    <mergeCell ref="K243:K248"/>
+    <mergeCell ref="L243:L248"/>
+    <mergeCell ref="L273:L278"/>
+    <mergeCell ref="K255:K260"/>
+    <mergeCell ref="L255:L260"/>
+    <mergeCell ref="A249:A254"/>
+    <mergeCell ref="B249:B254"/>
+    <mergeCell ref="B291:B296"/>
+    <mergeCell ref="C291:C296"/>
+    <mergeCell ref="D291:D296"/>
+    <mergeCell ref="J291:J296"/>
+    <mergeCell ref="K291:K296"/>
+    <mergeCell ref="L291:L296"/>
+    <mergeCell ref="J297:J302"/>
+    <mergeCell ref="K297:K302"/>
+    <mergeCell ref="L297:L302"/>
+    <mergeCell ref="K303:K308"/>
+    <mergeCell ref="L303:L308"/>
+    <mergeCell ref="L309:L314"/>
+    <mergeCell ref="J303:J308"/>
+    <mergeCell ref="K315:K320"/>
+    <mergeCell ref="L315:L320"/>
+    <mergeCell ref="A321:A326"/>
+    <mergeCell ref="B321:B326"/>
+    <mergeCell ref="C321:C326"/>
+    <mergeCell ref="D321:D326"/>
+    <mergeCell ref="J321:J326"/>
+    <mergeCell ref="J315:J320"/>
+    <mergeCell ref="A309:A314"/>
+    <mergeCell ref="B309:B314"/>
+    <mergeCell ref="C309:C314"/>
+    <mergeCell ref="D309:D314"/>
+    <mergeCell ref="J309:J314"/>
+    <mergeCell ref="K309:K314"/>
+    <mergeCell ref="A315:A320"/>
+    <mergeCell ref="B315:B320"/>
+    <mergeCell ref="C315:C320"/>
+    <mergeCell ref="D315:D320"/>
+    <mergeCell ref="K333:K338"/>
+    <mergeCell ref="A327:A332"/>
+    <mergeCell ref="B327:B332"/>
+    <mergeCell ref="C327:C332"/>
+    <mergeCell ref="D327:D332"/>
+    <mergeCell ref="A333:A338"/>
+    <mergeCell ref="B333:B338"/>
+    <mergeCell ref="K321:K326"/>
+    <mergeCell ref="L321:L326"/>
+    <mergeCell ref="L333:L338"/>
+    <mergeCell ref="A339:A344"/>
+    <mergeCell ref="B339:B344"/>
+    <mergeCell ref="C339:C344"/>
+    <mergeCell ref="D339:D344"/>
+    <mergeCell ref="J339:J344"/>
+    <mergeCell ref="K339:K344"/>
+    <mergeCell ref="L339:L344"/>
+    <mergeCell ref="J327:J332"/>
+    <mergeCell ref="K327:K332"/>
+    <mergeCell ref="L327:L332"/>
+    <mergeCell ref="C333:C338"/>
+    <mergeCell ref="D333:D338"/>
+    <mergeCell ref="J333:J338"/>
+    <mergeCell ref="L375:L380"/>
+    <mergeCell ref="K387:K392"/>
+    <mergeCell ref="K375:K380"/>
+    <mergeCell ref="K393:K398"/>
+    <mergeCell ref="A345:A350"/>
+    <mergeCell ref="A363:A368"/>
+    <mergeCell ref="B363:B368"/>
+    <mergeCell ref="C363:C368"/>
+    <mergeCell ref="D363:D368"/>
+    <mergeCell ref="B345:B350"/>
+    <mergeCell ref="C345:C350"/>
+    <mergeCell ref="D345:D350"/>
+    <mergeCell ref="L369:L374"/>
+    <mergeCell ref="K345:K350"/>
+    <mergeCell ref="L345:L350"/>
+    <mergeCell ref="K357:K362"/>
+    <mergeCell ref="L357:L362"/>
+    <mergeCell ref="K363:K368"/>
+    <mergeCell ref="L363:L368"/>
+    <mergeCell ref="K369:K374"/>
+    <mergeCell ref="L351:L356"/>
+    <mergeCell ref="A357:A362"/>
+    <mergeCell ref="B357:B362"/>
+    <mergeCell ref="C357:C362"/>
+    <mergeCell ref="D357:D362"/>
+    <mergeCell ref="J357:J362"/>
+    <mergeCell ref="K351:K356"/>
+    <mergeCell ref="A351:A356"/>
+    <mergeCell ref="B351:B356"/>
+    <mergeCell ref="C351:C356"/>
+    <mergeCell ref="D351:D356"/>
+    <mergeCell ref="C387:C392"/>
+    <mergeCell ref="K381:K386"/>
+    <mergeCell ref="L381:L386"/>
+    <mergeCell ref="L387:L392"/>
+    <mergeCell ref="L393:L398"/>
+    <mergeCell ref="D387:D392"/>
+    <mergeCell ref="K405:K410"/>
+    <mergeCell ref="L405:L410"/>
+    <mergeCell ref="A399:A404"/>
+    <mergeCell ref="B399:B404"/>
+    <mergeCell ref="C399:C404"/>
+    <mergeCell ref="D399:D404"/>
+    <mergeCell ref="J399:J404"/>
+    <mergeCell ref="K399:K404"/>
+    <mergeCell ref="A393:A398"/>
+    <mergeCell ref="B393:B398"/>
+    <mergeCell ref="C405:C410"/>
+    <mergeCell ref="D405:D410"/>
+    <mergeCell ref="J405:J410"/>
+    <mergeCell ref="C393:C398"/>
+    <mergeCell ref="D393:D398"/>
+    <mergeCell ref="J393:J398"/>
+    <mergeCell ref="D381:D386"/>
+    <mergeCell ref="L399:L404"/>
+    <mergeCell ref="K423:K428"/>
+    <mergeCell ref="L423:L428"/>
+    <mergeCell ref="A429:A434"/>
+    <mergeCell ref="B429:B434"/>
+    <mergeCell ref="C429:C434"/>
+    <mergeCell ref="D429:D434"/>
+    <mergeCell ref="J429:J434"/>
+    <mergeCell ref="K429:K434"/>
+    <mergeCell ref="L429:L434"/>
+    <mergeCell ref="A423:A428"/>
+    <mergeCell ref="K435:K440"/>
+    <mergeCell ref="L435:L440"/>
+    <mergeCell ref="L411:L416"/>
+    <mergeCell ref="A417:A422"/>
+    <mergeCell ref="B417:B422"/>
+    <mergeCell ref="C417:C422"/>
+    <mergeCell ref="D417:D422"/>
+    <mergeCell ref="J417:J422"/>
+    <mergeCell ref="K417:K422"/>
+    <mergeCell ref="L417:L422"/>
+    <mergeCell ref="A411:A416"/>
+    <mergeCell ref="B411:B416"/>
+    <mergeCell ref="C411:C416"/>
+    <mergeCell ref="D411:D416"/>
+    <mergeCell ref="J411:J416"/>
+    <mergeCell ref="K411:K416"/>
+    <mergeCell ref="J423:J428"/>
+    <mergeCell ref="J441:J446"/>
+    <mergeCell ref="K441:K446"/>
+    <mergeCell ref="L441:L446"/>
+    <mergeCell ref="J435:J440"/>
+    <mergeCell ref="D447:D452"/>
+    <mergeCell ref="J447:J452"/>
+    <mergeCell ref="K447:K452"/>
+    <mergeCell ref="L447:L452"/>
+    <mergeCell ref="A453:A458"/>
+    <mergeCell ref="B453:B458"/>
+    <mergeCell ref="C453:C458"/>
+    <mergeCell ref="D453:D458"/>
+    <mergeCell ref="J453:J458"/>
+    <mergeCell ref="K453:K458"/>
+    <mergeCell ref="L453:L458"/>
+    <mergeCell ref="A459:A464"/>
+    <mergeCell ref="B459:B464"/>
+    <mergeCell ref="C459:C464"/>
+    <mergeCell ref="D459:D464"/>
+    <mergeCell ref="J459:J464"/>
+    <mergeCell ref="K459:K464"/>
+    <mergeCell ref="L459:L464"/>
+    <mergeCell ref="J465:J470"/>
+    <mergeCell ref="K465:K470"/>
+    <mergeCell ref="L465:L470"/>
+    <mergeCell ref="K477:K482"/>
+    <mergeCell ref="L477:L482"/>
+    <mergeCell ref="L471:L476"/>
+    <mergeCell ref="D477:D482"/>
+    <mergeCell ref="J477:J482"/>
+    <mergeCell ref="D471:D476"/>
+    <mergeCell ref="J471:J476"/>
+    <mergeCell ref="K471:K476"/>
+    <mergeCell ref="C489:C494"/>
+    <mergeCell ref="D489:D494"/>
+    <mergeCell ref="J489:J494"/>
+    <mergeCell ref="K489:K494"/>
+    <mergeCell ref="D483:D488"/>
+    <mergeCell ref="C477:C482"/>
+    <mergeCell ref="L489:L494"/>
+    <mergeCell ref="A489:A494"/>
+    <mergeCell ref="B489:B494"/>
+    <mergeCell ref="K483:K488"/>
+    <mergeCell ref="L483:L488"/>
+    <mergeCell ref="K507:K512"/>
+    <mergeCell ref="J495:J500"/>
+    <mergeCell ref="K495:K500"/>
+    <mergeCell ref="L495:L500"/>
+    <mergeCell ref="K501:K506"/>
+    <mergeCell ref="L501:L506"/>
+    <mergeCell ref="L507:L512"/>
+    <mergeCell ref="A507:A512"/>
+    <mergeCell ref="B507:B512"/>
+    <mergeCell ref="C507:C512"/>
+    <mergeCell ref="D507:D512"/>
+    <mergeCell ref="J507:J512"/>
+    <mergeCell ref="A495:A500"/>
+    <mergeCell ref="B495:B500"/>
+    <mergeCell ref="C495:C500"/>
+    <mergeCell ref="D495:D500"/>
+    <mergeCell ref="L519:L524"/>
+    <mergeCell ref="A513:A518"/>
+    <mergeCell ref="B513:B518"/>
+    <mergeCell ref="A519:A524"/>
+    <mergeCell ref="B519:B524"/>
+    <mergeCell ref="C519:C524"/>
+    <mergeCell ref="D519:D524"/>
+    <mergeCell ref="J519:J524"/>
+    <mergeCell ref="K519:K524"/>
+    <mergeCell ref="C513:C518"/>
+    <mergeCell ref="D513:D518"/>
+    <mergeCell ref="J513:J518"/>
+    <mergeCell ref="A501:A506"/>
+    <mergeCell ref="B501:B506"/>
+    <mergeCell ref="C501:C506"/>
+    <mergeCell ref="D501:D506"/>
+    <mergeCell ref="J501:J506"/>
+    <mergeCell ref="K513:K518"/>
+    <mergeCell ref="L513:L518"/>
+    <mergeCell ref="A525:A530"/>
+    <mergeCell ref="B525:B530"/>
+    <mergeCell ref="K543:K548"/>
+    <mergeCell ref="L543:L548"/>
+    <mergeCell ref="A537:A542"/>
+    <mergeCell ref="B537:B542"/>
+    <mergeCell ref="C537:C542"/>
+    <mergeCell ref="D537:D542"/>
+    <mergeCell ref="A543:A548"/>
+    <mergeCell ref="B543:B548"/>
+    <mergeCell ref="C543:C548"/>
+    <mergeCell ref="D543:D548"/>
+    <mergeCell ref="A531:A536"/>
+    <mergeCell ref="B531:B536"/>
+    <mergeCell ref="C525:C530"/>
+    <mergeCell ref="D525:D530"/>
+    <mergeCell ref="J525:J530"/>
+    <mergeCell ref="K525:K530"/>
+    <mergeCell ref="L525:L530"/>
+    <mergeCell ref="C531:C536"/>
+    <mergeCell ref="D531:D536"/>
+    <mergeCell ref="K549:K554"/>
+    <mergeCell ref="L549:L554"/>
+    <mergeCell ref="J543:J548"/>
+    <mergeCell ref="J531:J536"/>
+    <mergeCell ref="K531:K536"/>
+    <mergeCell ref="L531:L536"/>
+    <mergeCell ref="J537:J542"/>
+    <mergeCell ref="K537:K542"/>
+    <mergeCell ref="L537:L542"/>
+    <mergeCell ref="A549:A554"/>
+    <mergeCell ref="B549:B554"/>
+    <mergeCell ref="C549:C554"/>
+    <mergeCell ref="D549:D554"/>
+    <mergeCell ref="J549:J554"/>
+    <mergeCell ref="K555:K560"/>
+    <mergeCell ref="L555:L560"/>
+    <mergeCell ref="A561:A566"/>
+    <mergeCell ref="B561:B566"/>
+    <mergeCell ref="C561:C566"/>
+    <mergeCell ref="D561:D566"/>
+    <mergeCell ref="J561:J566"/>
+    <mergeCell ref="K561:K566"/>
+    <mergeCell ref="L561:L566"/>
+    <mergeCell ref="J555:J560"/>
+    <mergeCell ref="A555:A560"/>
+    <mergeCell ref="B555:B560"/>
+    <mergeCell ref="C555:C560"/>
+    <mergeCell ref="D555:D560"/>
+    <mergeCell ref="L603:L608"/>
+    <mergeCell ref="C609:C614"/>
+    <mergeCell ref="A567:A572"/>
+    <mergeCell ref="B567:B572"/>
+    <mergeCell ref="C567:C572"/>
+    <mergeCell ref="D567:D572"/>
+    <mergeCell ref="L591:L596"/>
+    <mergeCell ref="L579:L584"/>
+    <mergeCell ref="B585:B590"/>
+    <mergeCell ref="C585:C590"/>
+    <mergeCell ref="D585:D590"/>
+    <mergeCell ref="J585:J590"/>
+    <mergeCell ref="K585:K590"/>
+    <mergeCell ref="L585:L590"/>
+    <mergeCell ref="A579:A584"/>
+    <mergeCell ref="B579:B584"/>
+    <mergeCell ref="C579:C584"/>
+    <mergeCell ref="D579:D584"/>
+    <mergeCell ref="K573:K578"/>
+    <mergeCell ref="K567:K572"/>
+    <mergeCell ref="L567:L572"/>
+    <mergeCell ref="L573:L578"/>
+    <mergeCell ref="K597:K602"/>
+    <mergeCell ref="D603:D608"/>
+    <mergeCell ref="K603:K608"/>
+    <mergeCell ref="A609:A614"/>
+    <mergeCell ref="B609:B614"/>
+    <mergeCell ref="A573:A578"/>
+    <mergeCell ref="B573:B578"/>
+    <mergeCell ref="C573:C578"/>
+    <mergeCell ref="D573:D578"/>
+    <mergeCell ref="J573:J578"/>
+    <mergeCell ref="A627:A632"/>
+    <mergeCell ref="B627:B632"/>
+    <mergeCell ref="C627:C632"/>
+    <mergeCell ref="D627:D632"/>
+    <mergeCell ref="J627:J632"/>
+    <mergeCell ref="K627:K632"/>
+    <mergeCell ref="A615:A620"/>
+    <mergeCell ref="B615:B620"/>
+    <mergeCell ref="C615:C620"/>
+    <mergeCell ref="D615:D620"/>
+    <mergeCell ref="J579:J584"/>
+    <mergeCell ref="K579:K584"/>
+    <mergeCell ref="J603:J608"/>
+    <mergeCell ref="J609:J614"/>
+    <mergeCell ref="A585:A590"/>
+    <mergeCell ref="K609:K614"/>
+    <mergeCell ref="D609:D614"/>
+    <mergeCell ref="K621:K626"/>
+    <mergeCell ref="K615:K620"/>
+    <mergeCell ref="A591:A596"/>
+    <mergeCell ref="B591:B596"/>
+    <mergeCell ref="C591:C596"/>
+    <mergeCell ref="D591:D596"/>
+    <mergeCell ref="J591:J596"/>
+    <mergeCell ref="K591:K596"/>
+    <mergeCell ref="L609:L614"/>
+    <mergeCell ref="L597:L602"/>
+    <mergeCell ref="C657:C662"/>
+    <mergeCell ref="D657:D662"/>
+    <mergeCell ref="J657:J662"/>
+    <mergeCell ref="K657:K662"/>
+    <mergeCell ref="L657:L662"/>
+    <mergeCell ref="A651:A656"/>
+    <mergeCell ref="B651:B656"/>
+    <mergeCell ref="C651:C656"/>
+    <mergeCell ref="D651:D656"/>
+    <mergeCell ref="J651:J656"/>
+    <mergeCell ref="K651:K656"/>
+    <mergeCell ref="L621:L626"/>
+    <mergeCell ref="L627:L632"/>
+    <mergeCell ref="L633:L638"/>
+    <mergeCell ref="L615:L620"/>
+    <mergeCell ref="L639:L644"/>
+    <mergeCell ref="A633:A638"/>
+    <mergeCell ref="B633:B638"/>
+    <mergeCell ref="C645:C650"/>
+    <mergeCell ref="D645:D650"/>
+    <mergeCell ref="J645:J650"/>
+    <mergeCell ref="K645:K650"/>
+    <mergeCell ref="L645:L650"/>
+    <mergeCell ref="A639:A644"/>
+    <mergeCell ref="B639:B644"/>
+    <mergeCell ref="C639:C644"/>
+    <mergeCell ref="D639:D644"/>
+    <mergeCell ref="J639:J644"/>
+    <mergeCell ref="K639:K644"/>
+    <mergeCell ref="J633:J638"/>
+    <mergeCell ref="K633:K638"/>
+    <mergeCell ref="L651:L656"/>
+    <mergeCell ref="K663:K668"/>
+    <mergeCell ref="L663:L668"/>
+    <mergeCell ref="A669:A674"/>
+    <mergeCell ref="B669:B674"/>
+    <mergeCell ref="C669:C674"/>
+    <mergeCell ref="D669:D674"/>
+    <mergeCell ref="J669:J674"/>
+    <mergeCell ref="K669:K674"/>
+    <mergeCell ref="L669:L674"/>
+    <mergeCell ref="A663:A668"/>
+    <mergeCell ref="J663:J668"/>
+    <mergeCell ref="A657:A662"/>
+    <mergeCell ref="B657:B662"/>
+    <mergeCell ref="K675:K680"/>
+    <mergeCell ref="L675:L680"/>
+    <mergeCell ref="A681:A686"/>
+    <mergeCell ref="B681:B686"/>
+    <mergeCell ref="C681:C686"/>
+    <mergeCell ref="D681:D686"/>
+    <mergeCell ref="J681:J686"/>
+    <mergeCell ref="K681:K686"/>
+    <mergeCell ref="L681:L686"/>
+    <mergeCell ref="J675:J680"/>
+    <mergeCell ref="A675:A680"/>
+    <mergeCell ref="B675:B680"/>
+    <mergeCell ref="C675:C680"/>
+    <mergeCell ref="D675:D680"/>
+    <mergeCell ref="B663:B668"/>
+    <mergeCell ref="C663:C668"/>
+    <mergeCell ref="D663:D668"/>
+    <mergeCell ref="K687:K692"/>
+    <mergeCell ref="L687:L692"/>
+    <mergeCell ref="A693:A698"/>
+    <mergeCell ref="B693:B698"/>
+    <mergeCell ref="C693:C698"/>
+    <mergeCell ref="D693:D698"/>
+    <mergeCell ref="J693:J698"/>
+    <mergeCell ref="K693:K698"/>
+    <mergeCell ref="A687:A692"/>
+    <mergeCell ref="B687:B692"/>
+    <mergeCell ref="L693:L698"/>
+    <mergeCell ref="A699:A704"/>
+    <mergeCell ref="B699:B704"/>
+    <mergeCell ref="C699:C704"/>
+    <mergeCell ref="D699:D704"/>
+    <mergeCell ref="J699:J704"/>
+    <mergeCell ref="K699:K704"/>
+    <mergeCell ref="L699:L704"/>
+    <mergeCell ref="C687:C692"/>
+    <mergeCell ref="K705:K710"/>
+    <mergeCell ref="L705:L710"/>
+    <mergeCell ref="K717:K722"/>
+    <mergeCell ref="L717:L722"/>
+    <mergeCell ref="L711:L716"/>
+    <mergeCell ref="J717:J722"/>
+    <mergeCell ref="J711:J716"/>
+    <mergeCell ref="K711:K716"/>
+    <mergeCell ref="C729:C734"/>
+    <mergeCell ref="D729:D734"/>
+    <mergeCell ref="J729:J734"/>
+    <mergeCell ref="K729:K734"/>
+    <mergeCell ref="D723:D728"/>
+    <mergeCell ref="J723:J728"/>
+    <mergeCell ref="C717:C722"/>
+    <mergeCell ref="D717:D722"/>
+    <mergeCell ref="K723:K728"/>
+    <mergeCell ref="B759:B764"/>
+    <mergeCell ref="J759:J764"/>
+    <mergeCell ref="K759:K764"/>
+    <mergeCell ref="L723:L728"/>
+    <mergeCell ref="J741:J746"/>
+    <mergeCell ref="L759:L764"/>
+    <mergeCell ref="A753:A758"/>
+    <mergeCell ref="B753:B758"/>
+    <mergeCell ref="C753:C758"/>
+    <mergeCell ref="D753:D758"/>
+    <mergeCell ref="J753:J758"/>
+    <mergeCell ref="K753:K758"/>
+    <mergeCell ref="L747:L752"/>
+    <mergeCell ref="L753:L758"/>
+    <mergeCell ref="A747:A752"/>
+    <mergeCell ref="B747:B752"/>
+    <mergeCell ref="C747:C752"/>
+    <mergeCell ref="D747:D752"/>
+    <mergeCell ref="J747:J752"/>
+    <mergeCell ref="K741:K746"/>
+    <mergeCell ref="L741:L746"/>
+    <mergeCell ref="A741:A746"/>
+    <mergeCell ref="B741:B746"/>
+    <mergeCell ref="C741:C746"/>
+    <mergeCell ref="J735:J740"/>
+    <mergeCell ref="K735:K740"/>
+    <mergeCell ref="L735:L740"/>
+    <mergeCell ref="A729:A734"/>
+    <mergeCell ref="B729:B734"/>
+    <mergeCell ref="L729:L734"/>
+    <mergeCell ref="A771:A776"/>
+    <mergeCell ref="B771:B776"/>
+    <mergeCell ref="C771:C776"/>
+    <mergeCell ref="D771:D776"/>
+    <mergeCell ref="J807:J812"/>
+    <mergeCell ref="J777:J782"/>
+    <mergeCell ref="K777:K782"/>
+    <mergeCell ref="L777:L782"/>
+    <mergeCell ref="A783:A788"/>
+    <mergeCell ref="B783:B788"/>
+    <mergeCell ref="C783:C788"/>
+    <mergeCell ref="D783:D788"/>
+    <mergeCell ref="K747:K752"/>
+    <mergeCell ref="K783:K788"/>
+    <mergeCell ref="L783:L788"/>
+    <mergeCell ref="A789:A794"/>
+    <mergeCell ref="B789:B794"/>
+    <mergeCell ref="C789:C794"/>
+    <mergeCell ref="D789:D794"/>
+    <mergeCell ref="J789:J794"/>
+    <mergeCell ref="K789:K794"/>
+    <mergeCell ref="L789:L794"/>
+    <mergeCell ref="J783:J788"/>
+    <mergeCell ref="J771:J776"/>
+    <mergeCell ref="K771:K776"/>
+    <mergeCell ref="L771:L776"/>
+    <mergeCell ref="A777:A782"/>
+    <mergeCell ref="B777:B782"/>
+    <mergeCell ref="J765:J770"/>
+    <mergeCell ref="K765:K770"/>
+    <mergeCell ref="L765:L770"/>
+    <mergeCell ref="A759:A764"/>
+    <mergeCell ref="A837:A842"/>
+    <mergeCell ref="B837:B842"/>
+    <mergeCell ref="C837:C842"/>
+    <mergeCell ref="D837:D842"/>
+    <mergeCell ref="J837:J842"/>
+    <mergeCell ref="K795:K800"/>
+    <mergeCell ref="L795:L800"/>
+    <mergeCell ref="A801:A806"/>
+    <mergeCell ref="B801:B806"/>
+    <mergeCell ref="C801:C806"/>
+    <mergeCell ref="D801:D806"/>
+    <mergeCell ref="J801:J806"/>
+    <mergeCell ref="K801:K806"/>
+    <mergeCell ref="L801:L806"/>
+    <mergeCell ref="J795:J800"/>
+    <mergeCell ref="A795:A800"/>
+    <mergeCell ref="B795:B800"/>
+    <mergeCell ref="C795:C800"/>
+    <mergeCell ref="D795:D800"/>
+    <mergeCell ref="K807:K812"/>
+    <mergeCell ref="L807:L812"/>
+    <mergeCell ref="A813:A818"/>
+    <mergeCell ref="B813:B818"/>
+    <mergeCell ref="C813:C818"/>
+    <mergeCell ref="D813:D818"/>
+    <mergeCell ref="J813:J818"/>
+    <mergeCell ref="K813:K818"/>
+    <mergeCell ref="L813:L818"/>
+    <mergeCell ref="A807:A812"/>
+    <mergeCell ref="B807:B812"/>
+    <mergeCell ref="C807:C812"/>
+    <mergeCell ref="D807:D812"/>
+    <mergeCell ref="A825:A830"/>
+    <mergeCell ref="A843:A848"/>
+    <mergeCell ref="B843:B848"/>
+    <mergeCell ref="K861:K866"/>
+    <mergeCell ref="L861:L866"/>
+    <mergeCell ref="K855:K860"/>
+    <mergeCell ref="K849:K854"/>
+    <mergeCell ref="D849:D854"/>
+    <mergeCell ref="A819:A824"/>
+    <mergeCell ref="B819:B824"/>
+    <mergeCell ref="C819:C824"/>
+    <mergeCell ref="D819:D824"/>
+    <mergeCell ref="J819:J824"/>
+    <mergeCell ref="L819:L824"/>
+    <mergeCell ref="B825:B830"/>
+    <mergeCell ref="C825:C830"/>
+    <mergeCell ref="D825:D830"/>
+    <mergeCell ref="J825:J830"/>
+    <mergeCell ref="K825:K830"/>
+    <mergeCell ref="L825:L830"/>
+    <mergeCell ref="K819:K824"/>
+    <mergeCell ref="L849:L854"/>
+    <mergeCell ref="L837:L842"/>
+    <mergeCell ref="A831:A836"/>
+    <mergeCell ref="B831:B836"/>
+    <mergeCell ref="C831:C836"/>
+    <mergeCell ref="D831:D836"/>
+    <mergeCell ref="J831:J836"/>
+    <mergeCell ref="K831:K836"/>
+    <mergeCell ref="L843:L848"/>
+    <mergeCell ref="C849:C854"/>
+    <mergeCell ref="L831:L836"/>
+    <mergeCell ref="A897:A902"/>
+    <mergeCell ref="B897:B902"/>
+    <mergeCell ref="C897:C902"/>
+    <mergeCell ref="D897:D902"/>
+    <mergeCell ref="J897:J902"/>
+    <mergeCell ref="K897:K902"/>
+    <mergeCell ref="L897:L902"/>
+    <mergeCell ref="A891:A896"/>
+    <mergeCell ref="B891:B896"/>
+    <mergeCell ref="C891:C896"/>
+    <mergeCell ref="D891:D896"/>
+    <mergeCell ref="J891:J896"/>
+    <mergeCell ref="K891:K896"/>
+    <mergeCell ref="L867:L872"/>
+    <mergeCell ref="L873:L878"/>
+    <mergeCell ref="L855:L860"/>
+    <mergeCell ref="A849:A854"/>
+    <mergeCell ref="B849:B854"/>
+    <mergeCell ref="A867:A872"/>
+    <mergeCell ref="B867:B872"/>
+    <mergeCell ref="C867:C872"/>
+    <mergeCell ref="D867:D872"/>
+    <mergeCell ref="J867:J872"/>
+    <mergeCell ref="K867:K872"/>
+    <mergeCell ref="A855:A860"/>
+    <mergeCell ref="B855:B860"/>
+    <mergeCell ref="C855:C860"/>
+    <mergeCell ref="D855:D860"/>
+    <mergeCell ref="J855:J860"/>
+    <mergeCell ref="B885:B890"/>
+    <mergeCell ref="C873:C878"/>
+    <mergeCell ref="D873:D878"/>
+    <mergeCell ref="L879:L884"/>
+    <mergeCell ref="A873:A878"/>
+    <mergeCell ref="B873:B878"/>
+    <mergeCell ref="C885:C890"/>
+    <mergeCell ref="D885:D890"/>
+    <mergeCell ref="J885:J890"/>
+    <mergeCell ref="K885:K890"/>
+    <mergeCell ref="L885:L890"/>
+    <mergeCell ref="A879:A884"/>
+    <mergeCell ref="B879:B884"/>
+    <mergeCell ref="C879:C884"/>
+    <mergeCell ref="D879:D884"/>
+    <mergeCell ref="J879:J884"/>
+    <mergeCell ref="K879:K884"/>
+    <mergeCell ref="J873:J878"/>
+    <mergeCell ref="K873:K878"/>
+    <mergeCell ref="L891:L896"/>
+    <mergeCell ref="K903:K908"/>
+    <mergeCell ref="L903:L908"/>
+    <mergeCell ref="A909:A914"/>
+    <mergeCell ref="B909:B914"/>
+    <mergeCell ref="C909:C914"/>
+    <mergeCell ref="D909:D914"/>
+    <mergeCell ref="J909:J914"/>
+    <mergeCell ref="K909:K914"/>
+    <mergeCell ref="L909:L914"/>
+    <mergeCell ref="A903:A908"/>
+    <mergeCell ref="K915:K920"/>
+    <mergeCell ref="L915:L920"/>
+    <mergeCell ref="A921:A926"/>
+    <mergeCell ref="B921:B926"/>
+    <mergeCell ref="C921:C926"/>
+    <mergeCell ref="D921:D926"/>
+    <mergeCell ref="J921:J926"/>
+    <mergeCell ref="K921:K926"/>
+    <mergeCell ref="L921:L926"/>
+    <mergeCell ref="J915:J920"/>
+    <mergeCell ref="B903:B908"/>
+    <mergeCell ref="C903:C908"/>
+    <mergeCell ref="D903:D908"/>
+    <mergeCell ref="J903:J908"/>
+    <mergeCell ref="D927:D932"/>
+    <mergeCell ref="J927:J932"/>
+    <mergeCell ref="K927:K932"/>
+    <mergeCell ref="L927:L932"/>
+    <mergeCell ref="A933:A938"/>
+    <mergeCell ref="B933:B938"/>
+    <mergeCell ref="C933:C938"/>
+    <mergeCell ref="D933:D938"/>
+    <mergeCell ref="J933:J938"/>
+    <mergeCell ref="K933:K938"/>
+    <mergeCell ref="A927:A932"/>
+    <mergeCell ref="B927:B932"/>
+    <mergeCell ref="L933:L938"/>
+    <mergeCell ref="A939:A944"/>
+    <mergeCell ref="B939:B944"/>
+    <mergeCell ref="C939:C944"/>
+    <mergeCell ref="D939:D944"/>
+    <mergeCell ref="J939:J944"/>
+    <mergeCell ref="K939:K944"/>
+    <mergeCell ref="L939:L944"/>
+    <mergeCell ref="L969:L974"/>
+    <mergeCell ref="A969:A974"/>
+    <mergeCell ref="B969:B974"/>
+    <mergeCell ref="K963:K968"/>
+    <mergeCell ref="L963:L968"/>
+    <mergeCell ref="K987:K992"/>
+    <mergeCell ref="J975:J980"/>
+    <mergeCell ref="K975:K980"/>
+    <mergeCell ref="L975:L980"/>
+    <mergeCell ref="K981:K986"/>
+    <mergeCell ref="L981:L986"/>
+    <mergeCell ref="L987:L992"/>
+    <mergeCell ref="K945:K950"/>
+    <mergeCell ref="L945:L950"/>
+    <mergeCell ref="K957:K962"/>
+    <mergeCell ref="L957:L962"/>
+    <mergeCell ref="L951:L956"/>
+    <mergeCell ref="K951:K956"/>
+    <mergeCell ref="C969:C974"/>
+    <mergeCell ref="D969:D974"/>
+    <mergeCell ref="J969:J974"/>
+    <mergeCell ref="K969:K974"/>
+    <mergeCell ref="D963:D968"/>
+    <mergeCell ref="C957:C962"/>
+    <mergeCell ref="D957:D962"/>
+    <mergeCell ref="J957:J962"/>
+    <mergeCell ref="A987:A992"/>
+    <mergeCell ref="B987:B992"/>
+    <mergeCell ref="C987:C992"/>
+    <mergeCell ref="D987:D992"/>
+    <mergeCell ref="K993:K998"/>
+    <mergeCell ref="L993:L998"/>
+    <mergeCell ref="A1005:A1010"/>
+    <mergeCell ref="B1005:B1010"/>
+    <mergeCell ref="K1023:K1028"/>
+    <mergeCell ref="L1023:L1028"/>
+    <mergeCell ref="A1017:A1022"/>
+    <mergeCell ref="B1017:B1022"/>
+    <mergeCell ref="C1017:C1022"/>
+    <mergeCell ref="D1017:D1022"/>
+    <mergeCell ref="A1023:A1028"/>
+    <mergeCell ref="B1023:B1028"/>
+    <mergeCell ref="C1023:C1028"/>
+    <mergeCell ref="D1023:D1028"/>
+    <mergeCell ref="A1011:A1016"/>
+    <mergeCell ref="B1011:B1016"/>
+    <mergeCell ref="L999:L1004"/>
+    <mergeCell ref="A993:A998"/>
+    <mergeCell ref="B993:B998"/>
+    <mergeCell ref="C1005:C1010"/>
+    <mergeCell ref="D1005:D1010"/>
+    <mergeCell ref="J1005:J1010"/>
+    <mergeCell ref="K1005:K1010"/>
+    <mergeCell ref="L1005:L1010"/>
+    <mergeCell ref="A999:A1004"/>
+    <mergeCell ref="B999:B1004"/>
+    <mergeCell ref="C999:C1004"/>
+    <mergeCell ref="D999:D1004"/>
+    <mergeCell ref="J999:J1004"/>
+    <mergeCell ref="K999:K1004"/>
+    <mergeCell ref="C993:C998"/>
+    <mergeCell ref="D993:D998"/>
+    <mergeCell ref="C1011:C1016"/>
+    <mergeCell ref="D1011:D1016"/>
+    <mergeCell ref="J1047:J1052"/>
+    <mergeCell ref="K1047:K1052"/>
+    <mergeCell ref="L1047:L1052"/>
+    <mergeCell ref="L1029:L1034"/>
+    <mergeCell ref="J1023:J1028"/>
+    <mergeCell ref="J1011:J1016"/>
+    <mergeCell ref="K1011:K1016"/>
+    <mergeCell ref="L1011:L1016"/>
+    <mergeCell ref="J1017:J1022"/>
+    <mergeCell ref="K1017:K1022"/>
+    <mergeCell ref="L1017:L1022"/>
+    <mergeCell ref="B1029:B1034"/>
+    <mergeCell ref="C1029:C1034"/>
+    <mergeCell ref="D1029:D1034"/>
+    <mergeCell ref="J1029:J1034"/>
+    <mergeCell ref="K1029:K1034"/>
+    <mergeCell ref="K1035:K1040"/>
+    <mergeCell ref="L1035:L1040"/>
+    <mergeCell ref="B1041:B1046"/>
+    <mergeCell ref="C1041:C1046"/>
+    <mergeCell ref="D1041:D1046"/>
+    <mergeCell ref="J1041:J1046"/>
+    <mergeCell ref="K1041:K1046"/>
+    <mergeCell ref="L1041:L1046"/>
+    <mergeCell ref="J1035:J1040"/>
+    <mergeCell ref="B1035:B1040"/>
+    <mergeCell ref="C1035:C1040"/>
+    <mergeCell ref="D1035:D1040"/>
+    <mergeCell ref="A1047:A1052"/>
+    <mergeCell ref="B1047:B1052"/>
+    <mergeCell ref="C1047:C1052"/>
+    <mergeCell ref="D1047:D1052"/>
+    <mergeCell ref="L1071:L1076"/>
+    <mergeCell ref="L1059:L1064"/>
+    <mergeCell ref="B1065:B1070"/>
+    <mergeCell ref="C1065:C1070"/>
+    <mergeCell ref="D1065:D1070"/>
+    <mergeCell ref="J1065:J1070"/>
+    <mergeCell ref="K1065:K1070"/>
+    <mergeCell ref="L1065:L1070"/>
+    <mergeCell ref="A1059:A1064"/>
+    <mergeCell ref="B1059:B1064"/>
+    <mergeCell ref="C1059:C1064"/>
+    <mergeCell ref="D1059:D1064"/>
+    <mergeCell ref="K1053:K1058"/>
+    <mergeCell ref="L1053:L1058"/>
+    <mergeCell ref="K1059:K1064"/>
+    <mergeCell ref="A1065:A1070"/>
+    <mergeCell ref="A1083:A1088"/>
+    <mergeCell ref="B1083:B1088"/>
+    <mergeCell ref="K1101:K1106"/>
+    <mergeCell ref="J1095:J1100"/>
+    <mergeCell ref="K1095:K1100"/>
+    <mergeCell ref="K1089:K1094"/>
+    <mergeCell ref="D1089:D1094"/>
+    <mergeCell ref="J1089:J1094"/>
+    <mergeCell ref="A1137:A1142"/>
+    <mergeCell ref="B1137:B1142"/>
+    <mergeCell ref="C1137:C1142"/>
+    <mergeCell ref="D1137:D1142"/>
+    <mergeCell ref="J1137:J1142"/>
+    <mergeCell ref="K1137:K1142"/>
+    <mergeCell ref="L1089:L1094"/>
+    <mergeCell ref="L1077:L1082"/>
+    <mergeCell ref="A1071:A1076"/>
+    <mergeCell ref="B1071:B1076"/>
+    <mergeCell ref="C1071:C1076"/>
+    <mergeCell ref="D1071:D1076"/>
+    <mergeCell ref="J1071:J1076"/>
+    <mergeCell ref="K1071:K1076"/>
+    <mergeCell ref="L1083:L1088"/>
+    <mergeCell ref="C1089:C1094"/>
+    <mergeCell ref="A1089:A1094"/>
+    <mergeCell ref="B1089:B1094"/>
+    <mergeCell ref="L1137:L1142"/>
+    <mergeCell ref="A1131:A1136"/>
+    <mergeCell ref="B1131:B1136"/>
+    <mergeCell ref="C1131:C1136"/>
+    <mergeCell ref="D1131:D1136"/>
+    <mergeCell ref="J1131:J1136"/>
+    <mergeCell ref="K1131:K1136"/>
+    <mergeCell ref="L1101:L1106"/>
+    <mergeCell ref="L1107:L1112"/>
+    <mergeCell ref="L1113:L1118"/>
+    <mergeCell ref="L1095:L1100"/>
+    <mergeCell ref="L1119:L1124"/>
+    <mergeCell ref="A1113:A1118"/>
+    <mergeCell ref="B1113:B1118"/>
+    <mergeCell ref="C1125:C1130"/>
+    <mergeCell ref="D1125:D1130"/>
+    <mergeCell ref="J1125:J1130"/>
+    <mergeCell ref="K1125:K1130"/>
+    <mergeCell ref="L1125:L1130"/>
+    <mergeCell ref="A1119:A1124"/>
+    <mergeCell ref="B1119:B1124"/>
+    <mergeCell ref="C1119:C1124"/>
+    <mergeCell ref="D1119:D1124"/>
+    <mergeCell ref="J1119:J1124"/>
+    <mergeCell ref="K1119:K1124"/>
+    <mergeCell ref="J1113:J1118"/>
+    <mergeCell ref="K1113:K1118"/>
+    <mergeCell ref="L1131:L1136"/>
+    <mergeCell ref="B1095:B1100"/>
+    <mergeCell ref="C1095:C1100"/>
+    <mergeCell ref="D1095:D1100"/>
+    <mergeCell ref="K1143:K1148"/>
+    <mergeCell ref="L1143:L1148"/>
+    <mergeCell ref="A1149:A1154"/>
+    <mergeCell ref="B1149:B1154"/>
+    <mergeCell ref="C1149:C1154"/>
+    <mergeCell ref="D1149:D1154"/>
+    <mergeCell ref="J1149:J1154"/>
+    <mergeCell ref="K1149:K1154"/>
+    <mergeCell ref="L1149:L1154"/>
+    <mergeCell ref="A1143:A1148"/>
+    <mergeCell ref="K1155:K1160"/>
+    <mergeCell ref="L1155:L1160"/>
+    <mergeCell ref="A1161:A1166"/>
+    <mergeCell ref="B1161:B1166"/>
+    <mergeCell ref="C1161:C1166"/>
+    <mergeCell ref="D1161:D1166"/>
+    <mergeCell ref="J1161:J1166"/>
+    <mergeCell ref="K1161:K1166"/>
+    <mergeCell ref="L1161:L1166"/>
+    <mergeCell ref="A1155:A1160"/>
+    <mergeCell ref="B1155:B1160"/>
+    <mergeCell ref="C1155:C1160"/>
+    <mergeCell ref="D1155:D1160"/>
+    <mergeCell ref="K1167:K1172"/>
+    <mergeCell ref="L1167:L1172"/>
+    <mergeCell ref="A1173:A1178"/>
+    <mergeCell ref="B1173:B1178"/>
+    <mergeCell ref="C1173:C1178"/>
+    <mergeCell ref="D1173:D1178"/>
+    <mergeCell ref="J1173:J1178"/>
+    <mergeCell ref="K1173:K1178"/>
+    <mergeCell ref="A1167:A1172"/>
+    <mergeCell ref="B1167:B1172"/>
+    <mergeCell ref="L1173:L1178"/>
+    <mergeCell ref="A1179:A1184"/>
+    <mergeCell ref="B1179:B1184"/>
+    <mergeCell ref="C1179:C1184"/>
+    <mergeCell ref="D1179:D1184"/>
+    <mergeCell ref="J1179:J1184"/>
+    <mergeCell ref="K1179:K1184"/>
+    <mergeCell ref="L1179:L1184"/>
+    <mergeCell ref="C1167:C1172"/>
+    <mergeCell ref="A1221:A1226"/>
+    <mergeCell ref="B1221:B1226"/>
+    <mergeCell ref="C1221:C1226"/>
+    <mergeCell ref="J1215:J1220"/>
+    <mergeCell ref="K1215:K1220"/>
+    <mergeCell ref="L1215:L1220"/>
+    <mergeCell ref="A1209:A1214"/>
+    <mergeCell ref="B1209:B1214"/>
+    <mergeCell ref="L1209:L1214"/>
+    <mergeCell ref="J1185:J1190"/>
+    <mergeCell ref="K1185:K1190"/>
+    <mergeCell ref="L1185:L1190"/>
+    <mergeCell ref="K1197:K1202"/>
+    <mergeCell ref="L1197:L1202"/>
+    <mergeCell ref="L1191:L1196"/>
+    <mergeCell ref="J1197:J1202"/>
+    <mergeCell ref="J1191:J1196"/>
+    <mergeCell ref="K1191:K1196"/>
+    <mergeCell ref="C1209:C1214"/>
+    <mergeCell ref="D1209:D1214"/>
+    <mergeCell ref="J1209:J1214"/>
+    <mergeCell ref="K1209:K1214"/>
+    <mergeCell ref="D1203:D1208"/>
+    <mergeCell ref="C1197:C1202"/>
+    <mergeCell ref="D1197:D1202"/>
+    <mergeCell ref="K1203:K1208"/>
+    <mergeCell ref="B1185:B1190"/>
+    <mergeCell ref="C1185:C1190"/>
+    <mergeCell ref="A1191:A1196"/>
+    <mergeCell ref="D1221:D1226"/>
+    <mergeCell ref="A1215:A1220"/>
+    <mergeCell ref="B1215:B1220"/>
+    <mergeCell ref="J1263:J1268"/>
+    <mergeCell ref="A1263:A1268"/>
+    <mergeCell ref="B1263:B1268"/>
+    <mergeCell ref="C1263:C1268"/>
+    <mergeCell ref="D1263:D1268"/>
+    <mergeCell ref="K1233:K1238"/>
+    <mergeCell ref="L1227:L1232"/>
+    <mergeCell ref="L1233:L1238"/>
+    <mergeCell ref="A1227:A1232"/>
+    <mergeCell ref="B1227:B1232"/>
+    <mergeCell ref="C1227:C1232"/>
+    <mergeCell ref="D1227:D1232"/>
+    <mergeCell ref="J1227:J1232"/>
+    <mergeCell ref="K1227:K1232"/>
+    <mergeCell ref="L1203:L1208"/>
+    <mergeCell ref="L1239:L1244"/>
+    <mergeCell ref="A1233:A1238"/>
+    <mergeCell ref="B1233:B1238"/>
+    <mergeCell ref="C1245:C1250"/>
+    <mergeCell ref="D1245:D1250"/>
+    <mergeCell ref="J1245:J1250"/>
+    <mergeCell ref="K1245:K1250"/>
+    <mergeCell ref="L1245:L1250"/>
+    <mergeCell ref="A1239:A1244"/>
+    <mergeCell ref="B1239:B1244"/>
+    <mergeCell ref="J1239:J1244"/>
+    <mergeCell ref="K1239:K1244"/>
+    <mergeCell ref="C1233:C1238"/>
+    <mergeCell ref="D1233:D1238"/>
+    <mergeCell ref="J1233:J1238"/>
+    <mergeCell ref="K1221:K1226"/>
+    <mergeCell ref="L1221:L1226"/>
+    <mergeCell ref="C1293:C1298"/>
+    <mergeCell ref="D1293:D1298"/>
+    <mergeCell ref="J1293:J1298"/>
+    <mergeCell ref="K1293:K1298"/>
+    <mergeCell ref="L1293:L1298"/>
+    <mergeCell ref="A1287:A1292"/>
+    <mergeCell ref="B1287:B1292"/>
+    <mergeCell ref="C1287:C1292"/>
+    <mergeCell ref="D1287:D1292"/>
+    <mergeCell ref="J1251:J1256"/>
+    <mergeCell ref="K1251:K1256"/>
+    <mergeCell ref="L1251:L1256"/>
+    <mergeCell ref="A1257:A1262"/>
+    <mergeCell ref="B1257:B1262"/>
+    <mergeCell ref="C1257:C1262"/>
+    <mergeCell ref="D1257:D1262"/>
+    <mergeCell ref="J1257:J1262"/>
+    <mergeCell ref="K1257:K1262"/>
+    <mergeCell ref="L1257:L1262"/>
+    <mergeCell ref="A1251:A1256"/>
+    <mergeCell ref="B1251:B1256"/>
+    <mergeCell ref="C1251:C1256"/>
+    <mergeCell ref="D1251:D1256"/>
+    <mergeCell ref="K1263:K1268"/>
+    <mergeCell ref="L1263:L1268"/>
+    <mergeCell ref="A1269:A1274"/>
+    <mergeCell ref="B1269:B1274"/>
+    <mergeCell ref="C1269:C1274"/>
+    <mergeCell ref="D1269:D1274"/>
+    <mergeCell ref="J1269:J1274"/>
+    <mergeCell ref="K1269:K1274"/>
+    <mergeCell ref="L1269:L1274"/>
+    <mergeCell ref="L1323:L1328"/>
+    <mergeCell ref="C1329:C1334"/>
+    <mergeCell ref="A1323:A1328"/>
+    <mergeCell ref="B1323:B1328"/>
+    <mergeCell ref="K1329:K1334"/>
+    <mergeCell ref="D1329:D1334"/>
+    <mergeCell ref="J1329:J1334"/>
+    <mergeCell ref="L1311:L1316"/>
+    <mergeCell ref="A1317:A1322"/>
+    <mergeCell ref="B1317:B1322"/>
+    <mergeCell ref="C1317:C1322"/>
+    <mergeCell ref="D1317:D1322"/>
+    <mergeCell ref="J1317:J1322"/>
+    <mergeCell ref="K1275:K1280"/>
+    <mergeCell ref="L1275:L1280"/>
+    <mergeCell ref="A1281:A1286"/>
+    <mergeCell ref="B1281:B1286"/>
+    <mergeCell ref="C1281:C1286"/>
+    <mergeCell ref="D1281:D1286"/>
+    <mergeCell ref="J1281:J1286"/>
+    <mergeCell ref="K1281:K1286"/>
+    <mergeCell ref="L1281:L1286"/>
+    <mergeCell ref="J1275:J1280"/>
+    <mergeCell ref="A1275:A1280"/>
+    <mergeCell ref="B1275:B1280"/>
+    <mergeCell ref="C1275:C1280"/>
+    <mergeCell ref="D1275:D1280"/>
+    <mergeCell ref="J1287:J1292"/>
+    <mergeCell ref="K1287:K1292"/>
+    <mergeCell ref="L1287:L1292"/>
+    <mergeCell ref="A1293:A1298"/>
+    <mergeCell ref="B1293:B1298"/>
+    <mergeCell ref="A1329:A1334"/>
+    <mergeCell ref="B1329:B1334"/>
+    <mergeCell ref="A1347:A1352"/>
+    <mergeCell ref="B1347:B1352"/>
+    <mergeCell ref="C1347:C1352"/>
+    <mergeCell ref="D1347:D1352"/>
+    <mergeCell ref="J1347:J1352"/>
+    <mergeCell ref="K1347:K1352"/>
+    <mergeCell ref="A1335:A1340"/>
+    <mergeCell ref="B1335:B1340"/>
+    <mergeCell ref="C1335:C1340"/>
+    <mergeCell ref="D1335:D1340"/>
+    <mergeCell ref="L1299:L1304"/>
+    <mergeCell ref="B1305:B1310"/>
+    <mergeCell ref="C1305:C1310"/>
+    <mergeCell ref="D1305:D1310"/>
+    <mergeCell ref="J1305:J1310"/>
+    <mergeCell ref="K1305:K1310"/>
+    <mergeCell ref="L1305:L1310"/>
+    <mergeCell ref="B1299:B1304"/>
+    <mergeCell ref="C1299:C1304"/>
+    <mergeCell ref="D1299:D1304"/>
+    <mergeCell ref="J1299:J1304"/>
+    <mergeCell ref="K1299:K1304"/>
+    <mergeCell ref="L1329:L1334"/>
+    <mergeCell ref="L1317:L1322"/>
+    <mergeCell ref="A1311:A1316"/>
+    <mergeCell ref="B1311:B1316"/>
+    <mergeCell ref="C1311:C1316"/>
+    <mergeCell ref="D1311:D1316"/>
+    <mergeCell ref="J1311:J1316"/>
+    <mergeCell ref="K1311:K1316"/>
+    <mergeCell ref="L1335:L1340"/>
+    <mergeCell ref="L1359:L1364"/>
+    <mergeCell ref="A1353:A1358"/>
+    <mergeCell ref="B1353:B1358"/>
+    <mergeCell ref="C1365:C1370"/>
+    <mergeCell ref="D1365:D1370"/>
+    <mergeCell ref="J1365:J1370"/>
+    <mergeCell ref="K1365:K1370"/>
+    <mergeCell ref="L1365:L1370"/>
+    <mergeCell ref="A1359:A1364"/>
+    <mergeCell ref="B1359:B1364"/>
+    <mergeCell ref="C1359:C1364"/>
+    <mergeCell ref="D1359:D1364"/>
+    <mergeCell ref="J1359:J1364"/>
+    <mergeCell ref="K1359:K1364"/>
+    <mergeCell ref="J1353:J1358"/>
+    <mergeCell ref="K1353:K1358"/>
+    <mergeCell ref="J1395:J1400"/>
+    <mergeCell ref="J1383:J1388"/>
+    <mergeCell ref="C1371:C1376"/>
+    <mergeCell ref="D1371:D1376"/>
+    <mergeCell ref="J1371:J1376"/>
+    <mergeCell ref="K1371:K1376"/>
+    <mergeCell ref="L1341:L1346"/>
+    <mergeCell ref="L1347:L1352"/>
+    <mergeCell ref="L1353:L1358"/>
+    <mergeCell ref="L1371:L1376"/>
+    <mergeCell ref="A1377:A1382"/>
+    <mergeCell ref="B1377:B1382"/>
+    <mergeCell ref="C1377:C1382"/>
+    <mergeCell ref="D1377:D1382"/>
+    <mergeCell ref="J1377:J1382"/>
+    <mergeCell ref="K1377:K1382"/>
+    <mergeCell ref="L1377:L1382"/>
+    <mergeCell ref="A1371:A1376"/>
+    <mergeCell ref="B1371:B1376"/>
+    <mergeCell ref="D1407:D1412"/>
+    <mergeCell ref="J1407:J1412"/>
+    <mergeCell ref="K1407:K1412"/>
+    <mergeCell ref="L1407:L1412"/>
+    <mergeCell ref="A1413:A1418"/>
+    <mergeCell ref="B1413:B1418"/>
+    <mergeCell ref="C1413:C1418"/>
+    <mergeCell ref="D1413:D1418"/>
+    <mergeCell ref="J1413:J1418"/>
+    <mergeCell ref="K1413:K1418"/>
+    <mergeCell ref="A1407:A1412"/>
+    <mergeCell ref="B1407:B1412"/>
+    <mergeCell ref="L1413:L1418"/>
+    <mergeCell ref="K1383:K1388"/>
+    <mergeCell ref="L1383:L1388"/>
+    <mergeCell ref="A1389:A1394"/>
+    <mergeCell ref="B1389:B1394"/>
+    <mergeCell ref="C1389:C1394"/>
+    <mergeCell ref="D1389:D1394"/>
+    <mergeCell ref="J1389:J1394"/>
+    <mergeCell ref="K1389:K1394"/>
+    <mergeCell ref="L1389:L1394"/>
+    <mergeCell ref="A1383:A1388"/>
+    <mergeCell ref="K1395:K1400"/>
+    <mergeCell ref="L1395:L1400"/>
+    <mergeCell ref="A1401:A1406"/>
+    <mergeCell ref="B1401:B1406"/>
+    <mergeCell ref="C1401:C1406"/>
+    <mergeCell ref="D1401:D1406"/>
+    <mergeCell ref="J1401:J1406"/>
+    <mergeCell ref="K1401:K1406"/>
+    <mergeCell ref="L1401:L1406"/>
+    <mergeCell ref="A1419:A1424"/>
+    <mergeCell ref="B1419:B1424"/>
+    <mergeCell ref="C1419:C1424"/>
+    <mergeCell ref="D1419:D1424"/>
+    <mergeCell ref="J1419:J1424"/>
+    <mergeCell ref="K1419:K1424"/>
+    <mergeCell ref="L1419:L1424"/>
+    <mergeCell ref="D1425:D1430"/>
+    <mergeCell ref="J1425:J1430"/>
+    <mergeCell ref="K1425:K1430"/>
+    <mergeCell ref="L1425:L1430"/>
+    <mergeCell ref="K1437:K1442"/>
+    <mergeCell ref="L1437:L1442"/>
+    <mergeCell ref="L1431:L1436"/>
+    <mergeCell ref="D1437:D1442"/>
+    <mergeCell ref="J1437:J1442"/>
+    <mergeCell ref="D1431:D1436"/>
+    <mergeCell ref="J1431:J1436"/>
+    <mergeCell ref="K1431:K1436"/>
+    <mergeCell ref="C1437:C1442"/>
+    <mergeCell ref="K1443:K1448"/>
+    <mergeCell ref="J1443:J1448"/>
+    <mergeCell ref="B1473:B1478"/>
+    <mergeCell ref="K1491:K1496"/>
+    <mergeCell ref="L1491:L1496"/>
+    <mergeCell ref="A1485:A1490"/>
+    <mergeCell ref="B1485:B1490"/>
+    <mergeCell ref="C1485:C1490"/>
+    <mergeCell ref="D1485:D1490"/>
+    <mergeCell ref="J1485:J1490"/>
+    <mergeCell ref="K1455:K1460"/>
+    <mergeCell ref="L1455:L1460"/>
+    <mergeCell ref="A1449:A1454"/>
+    <mergeCell ref="B1449:B1454"/>
+    <mergeCell ref="A1467:A1472"/>
+    <mergeCell ref="B1467:B1472"/>
+    <mergeCell ref="C1467:C1472"/>
+    <mergeCell ref="D1467:D1472"/>
+    <mergeCell ref="J1467:J1472"/>
+    <mergeCell ref="L1449:L1454"/>
+    <mergeCell ref="K1461:K1466"/>
+    <mergeCell ref="J1461:J1466"/>
+    <mergeCell ref="K1485:K1490"/>
+    <mergeCell ref="L1461:L1466"/>
+    <mergeCell ref="L1467:L1472"/>
+    <mergeCell ref="L1473:L1478"/>
+    <mergeCell ref="K1467:K1472"/>
+    <mergeCell ref="C1473:C1478"/>
+    <mergeCell ref="D1473:D1478"/>
+    <mergeCell ref="J1473:J1478"/>
+    <mergeCell ref="K1473:K1478"/>
+    <mergeCell ref="L1443:L1448"/>
+    <mergeCell ref="C1449:C1454"/>
+    <mergeCell ref="D1449:D1454"/>
+    <mergeCell ref="J1449:J1454"/>
+    <mergeCell ref="K1449:K1454"/>
+    <mergeCell ref="D1443:D1448"/>
+    <mergeCell ref="J1491:J1496"/>
+    <mergeCell ref="A1473:A1478"/>
+    <mergeCell ref="L1509:L1514"/>
+    <mergeCell ref="A1515:A1520"/>
+    <mergeCell ref="B1515:B1520"/>
+    <mergeCell ref="C1515:C1520"/>
+    <mergeCell ref="D1515:D1520"/>
+    <mergeCell ref="J1515:J1520"/>
+    <mergeCell ref="K1515:K1520"/>
+    <mergeCell ref="L1515:L1520"/>
+    <mergeCell ref="A1509:A1514"/>
+    <mergeCell ref="B1509:B1514"/>
+    <mergeCell ref="C1509:C1514"/>
+    <mergeCell ref="D1509:D1514"/>
+    <mergeCell ref="J1509:J1514"/>
+    <mergeCell ref="K1509:K1514"/>
+    <mergeCell ref="L1485:L1490"/>
+    <mergeCell ref="L1497:L1502"/>
+    <mergeCell ref="A1503:A1508"/>
+    <mergeCell ref="B1503:B1508"/>
+    <mergeCell ref="C1503:C1508"/>
+    <mergeCell ref="D1503:D1508"/>
+    <mergeCell ref="J1503:J1508"/>
+    <mergeCell ref="K1503:K1508"/>
+    <mergeCell ref="L1503:L1508"/>
+    <mergeCell ref="A1497:A1502"/>
+    <mergeCell ref="B1497:B1502"/>
+    <mergeCell ref="L1521:L1526"/>
+    <mergeCell ref="A1479:A1484"/>
+    <mergeCell ref="B1479:B1484"/>
+    <mergeCell ref="C1479:C1484"/>
+    <mergeCell ref="D1479:D1484"/>
+    <mergeCell ref="J1479:J1484"/>
+    <mergeCell ref="K1479:K1484"/>
+    <mergeCell ref="L1479:L1484"/>
+    <mergeCell ref="A1527:A1532"/>
+    <mergeCell ref="B1527:B1532"/>
+    <mergeCell ref="C1527:C1532"/>
+    <mergeCell ref="D1527:D1532"/>
+    <mergeCell ref="J1527:J1532"/>
+    <mergeCell ref="K1527:K1532"/>
+    <mergeCell ref="L1527:L1532"/>
+    <mergeCell ref="A1521:A1526"/>
+    <mergeCell ref="B1521:B1526"/>
+    <mergeCell ref="C1521:C1526"/>
+    <mergeCell ref="D1521:D1526"/>
+    <mergeCell ref="J1521:J1526"/>
+    <mergeCell ref="K1521:K1526"/>
+    <mergeCell ref="C1497:C1502"/>
+    <mergeCell ref="D1497:D1502"/>
+    <mergeCell ref="J1497:J1502"/>
+    <mergeCell ref="K1497:K1502"/>
+    <mergeCell ref="A1491:A1496"/>
+    <mergeCell ref="B1491:B1496"/>
+    <mergeCell ref="C1491:C1496"/>
+    <mergeCell ref="D1491:D1496"/>
+    <mergeCell ref="L1533:L1538"/>
+    <mergeCell ref="A1539:A1544"/>
+    <mergeCell ref="B1539:B1544"/>
+    <mergeCell ref="C1539:C1544"/>
+    <mergeCell ref="D1539:D1544"/>
+    <mergeCell ref="J1539:J1544"/>
+    <mergeCell ref="K1539:K1544"/>
+    <mergeCell ref="L1539:L1544"/>
+    <mergeCell ref="A1533:A1538"/>
+    <mergeCell ref="B1533:B1538"/>
+    <mergeCell ref="C1533:C1538"/>
+    <mergeCell ref="D1533:D1538"/>
+    <mergeCell ref="J1533:J1538"/>
+    <mergeCell ref="K1533:K1538"/>
+    <mergeCell ref="L1545:L1550"/>
+    <mergeCell ref="A1551:A1556"/>
+    <mergeCell ref="B1551:B1556"/>
+    <mergeCell ref="C1551:C1556"/>
+    <mergeCell ref="D1551:D1556"/>
+    <mergeCell ref="J1551:J1556"/>
+    <mergeCell ref="K1551:K1556"/>
+    <mergeCell ref="L1551:L1556"/>
+    <mergeCell ref="A1545:A1550"/>
+    <mergeCell ref="B1545:B1550"/>
+    <mergeCell ref="C1545:C1550"/>
+    <mergeCell ref="D1545:D1550"/>
+    <mergeCell ref="J1545:J1550"/>
+    <mergeCell ref="K1545:K1550"/>
+    <mergeCell ref="L1557:L1562"/>
+    <mergeCell ref="A1563:A1568"/>
+    <mergeCell ref="B1563:B1568"/>
+    <mergeCell ref="C1563:C1568"/>
+    <mergeCell ref="D1563:D1568"/>
+    <mergeCell ref="J1563:J1568"/>
+    <mergeCell ref="K1563:K1568"/>
+    <mergeCell ref="L1563:L1568"/>
+    <mergeCell ref="A1557:A1562"/>
+    <mergeCell ref="B1557:B1562"/>
+    <mergeCell ref="C1557:C1562"/>
+    <mergeCell ref="D1557:D1562"/>
+    <mergeCell ref="J1557:J1562"/>
+    <mergeCell ref="K1557:K1562"/>
+    <mergeCell ref="L1569:L1574"/>
+    <mergeCell ref="A1575:A1580"/>
+    <mergeCell ref="B1575:B1580"/>
+    <mergeCell ref="C1575:C1580"/>
+    <mergeCell ref="D1575:D1580"/>
+    <mergeCell ref="J1575:J1580"/>
+    <mergeCell ref="K1575:K1580"/>
+    <mergeCell ref="L1575:L1580"/>
+    <mergeCell ref="A1569:A1574"/>
+    <mergeCell ref="B1569:B1574"/>
+    <mergeCell ref="C1569:C1574"/>
+    <mergeCell ref="D1569:D1574"/>
+    <mergeCell ref="J1569:J1574"/>
+    <mergeCell ref="K1569:K1574"/>
+    <mergeCell ref="L1581:L1586"/>
+    <mergeCell ref="A1587:A1592"/>
+    <mergeCell ref="B1587:B1592"/>
+    <mergeCell ref="C1587:C1592"/>
+    <mergeCell ref="D1587:D1592"/>
+    <mergeCell ref="J1587:J1592"/>
+    <mergeCell ref="K1587:K1592"/>
+    <mergeCell ref="L1587:L1592"/>
+    <mergeCell ref="A1581:A1586"/>
+    <mergeCell ref="B1581:B1586"/>
+    <mergeCell ref="C1581:C1586"/>
+    <mergeCell ref="D1581:D1586"/>
+    <mergeCell ref="J1581:J1586"/>
+    <mergeCell ref="K1581:K1586"/>
+    <mergeCell ref="L1593:L1598"/>
+    <mergeCell ref="A1599:A1604"/>
+    <mergeCell ref="B1599:B1604"/>
+    <mergeCell ref="C1599:C1604"/>
+    <mergeCell ref="D1599:D1604"/>
+    <mergeCell ref="J1599:J1604"/>
+    <mergeCell ref="K1599:K1604"/>
+    <mergeCell ref="L1599:L1604"/>
+    <mergeCell ref="A1593:A1598"/>
+    <mergeCell ref="B1593:B1598"/>
+    <mergeCell ref="C1593:C1598"/>
+    <mergeCell ref="D1593:D1598"/>
+    <mergeCell ref="J1593:J1598"/>
+    <mergeCell ref="K1593:K1598"/>
+    <mergeCell ref="L1605:L1610"/>
+    <mergeCell ref="A1611:A1616"/>
+    <mergeCell ref="B1611:B1616"/>
+    <mergeCell ref="C1611:C1616"/>
+    <mergeCell ref="D1611:D1616"/>
+    <mergeCell ref="J1611:J1616"/>
+    <mergeCell ref="K1611:K1616"/>
+    <mergeCell ref="L1611:L1616"/>
+    <mergeCell ref="A1605:A1610"/>
+    <mergeCell ref="B1605:B1610"/>
+    <mergeCell ref="C1605:C1610"/>
+    <mergeCell ref="D1605:D1610"/>
+    <mergeCell ref="J1605:J1610"/>
+    <mergeCell ref="K1605:K1610"/>
+    <mergeCell ref="L1617:L1622"/>
+    <mergeCell ref="A1623:A1628"/>
+    <mergeCell ref="B1623:B1628"/>
+    <mergeCell ref="C1623:C1628"/>
+    <mergeCell ref="D1623:D1628"/>
+    <mergeCell ref="J1623:J1628"/>
+    <mergeCell ref="K1623:K1628"/>
+    <mergeCell ref="L1623:L1628"/>
+    <mergeCell ref="A1617:A1622"/>
+    <mergeCell ref="B1617:B1622"/>
+    <mergeCell ref="C1617:C1622"/>
+    <mergeCell ref="D1617:D1622"/>
+    <mergeCell ref="J1617:J1622"/>
+    <mergeCell ref="K1617:K1622"/>
+    <mergeCell ref="L1629:L1634"/>
+    <mergeCell ref="A1635:A1640"/>
+    <mergeCell ref="B1635:B1640"/>
+    <mergeCell ref="C1635:C1640"/>
+    <mergeCell ref="D1635:D1640"/>
+    <mergeCell ref="J1635:J1640"/>
+    <mergeCell ref="K1635:K1640"/>
+    <mergeCell ref="L1635:L1640"/>
+    <mergeCell ref="A1629:A1634"/>
+    <mergeCell ref="B1629:B1634"/>
+    <mergeCell ref="C1629:C1634"/>
+    <mergeCell ref="D1629:D1634"/>
+    <mergeCell ref="J1629:J1634"/>
+    <mergeCell ref="K1629:K1634"/>
+    <mergeCell ref="L1641:L1646"/>
+    <mergeCell ref="A1647:A1652"/>
+    <mergeCell ref="B1647:B1652"/>
+    <mergeCell ref="C1647:C1652"/>
+    <mergeCell ref="D1647:D1652"/>
+    <mergeCell ref="J1647:J1652"/>
+    <mergeCell ref="K1647:K1652"/>
+    <mergeCell ref="L1647:L1652"/>
+    <mergeCell ref="A1641:A1646"/>
+    <mergeCell ref="B1641:B1646"/>
+    <mergeCell ref="C1641:C1646"/>
+    <mergeCell ref="D1641:D1646"/>
+    <mergeCell ref="J1641:J1646"/>
+    <mergeCell ref="K1641:K1646"/>
+    <mergeCell ref="L1653:L1658"/>
+    <mergeCell ref="A1659:A1664"/>
+    <mergeCell ref="B1659:B1664"/>
+    <mergeCell ref="C1659:C1664"/>
+    <mergeCell ref="D1659:D1664"/>
+    <mergeCell ref="J1659:J1664"/>
+    <mergeCell ref="K1659:K1664"/>
+    <mergeCell ref="L1659:L1664"/>
+    <mergeCell ref="A1653:A1658"/>
+    <mergeCell ref="B1653:B1658"/>
+    <mergeCell ref="C1653:C1658"/>
+    <mergeCell ref="D1653:D1658"/>
+    <mergeCell ref="J1653:J1658"/>
+    <mergeCell ref="K1653:K1658"/>
+    <mergeCell ref="L1665:L1670"/>
+    <mergeCell ref="A1671:A1676"/>
+    <mergeCell ref="B1671:B1676"/>
+    <mergeCell ref="C1671:C1676"/>
+    <mergeCell ref="D1671:D1676"/>
+    <mergeCell ref="J1671:J1676"/>
+    <mergeCell ref="K1671:K1676"/>
+    <mergeCell ref="L1671:L1676"/>
+    <mergeCell ref="A1665:A1670"/>
+    <mergeCell ref="B1665:B1670"/>
+    <mergeCell ref="C1665:C1670"/>
+    <mergeCell ref="D1665:D1670"/>
+    <mergeCell ref="J1665:J1670"/>
+    <mergeCell ref="K1665:K1670"/>
+    <mergeCell ref="L1677:L1682"/>
+    <mergeCell ref="A1683:A1688"/>
+    <mergeCell ref="B1683:B1688"/>
+    <mergeCell ref="C1683:C1688"/>
+    <mergeCell ref="D1683:D1688"/>
+    <mergeCell ref="J1683:J1688"/>
+    <mergeCell ref="K1683:K1688"/>
+    <mergeCell ref="L1683:L1688"/>
+    <mergeCell ref="A1677:A1682"/>
+    <mergeCell ref="B1677:B1682"/>
+    <mergeCell ref="C1677:C1682"/>
+    <mergeCell ref="D1677:D1682"/>
+    <mergeCell ref="J1677:J1682"/>
+    <mergeCell ref="K1677:K1682"/>
+    <mergeCell ref="L1689:L1694"/>
+    <mergeCell ref="A1695:A1700"/>
+    <mergeCell ref="B1695:B1700"/>
+    <mergeCell ref="C1695:C1700"/>
+    <mergeCell ref="D1695:D1700"/>
+    <mergeCell ref="J1695:J1700"/>
+    <mergeCell ref="K1695:K1700"/>
+    <mergeCell ref="L1695:L1700"/>
+    <mergeCell ref="A1689:A1694"/>
+    <mergeCell ref="B1689:B1694"/>
+    <mergeCell ref="C1689:C1694"/>
+    <mergeCell ref="D1689:D1694"/>
+    <mergeCell ref="J1689:J1694"/>
+    <mergeCell ref="K1689:K1694"/>
+    <mergeCell ref="L1701:L1706"/>
+    <mergeCell ref="A1707:A1712"/>
+    <mergeCell ref="B1707:B1712"/>
+    <mergeCell ref="C1707:C1712"/>
+    <mergeCell ref="D1707:D1712"/>
+    <mergeCell ref="J1707:J1712"/>
+    <mergeCell ref="K1707:K1712"/>
+    <mergeCell ref="L1707:L1712"/>
+    <mergeCell ref="A1701:A1706"/>
+    <mergeCell ref="B1701:B1706"/>
+    <mergeCell ref="C1701:C1706"/>
+    <mergeCell ref="D1701:D1706"/>
+    <mergeCell ref="J1701:J1706"/>
+    <mergeCell ref="K1701:K1706"/>
+    <mergeCell ref="L1713:L1718"/>
+    <mergeCell ref="A1719:A1724"/>
+    <mergeCell ref="B1719:B1724"/>
+    <mergeCell ref="C1719:C1724"/>
+    <mergeCell ref="D1719:D1724"/>
+    <mergeCell ref="J1719:J1724"/>
+    <mergeCell ref="K1719:K1724"/>
+    <mergeCell ref="L1719:L1724"/>
+    <mergeCell ref="A1713:A1718"/>
+    <mergeCell ref="B1713:B1718"/>
+    <mergeCell ref="C1713:C1718"/>
+    <mergeCell ref="D1713:D1718"/>
+    <mergeCell ref="J1713:J1718"/>
+    <mergeCell ref="K1713:K1718"/>
+    <mergeCell ref="L1725:L1730"/>
+    <mergeCell ref="A1731:A1736"/>
+    <mergeCell ref="B1731:B1736"/>
+    <mergeCell ref="C1731:C1736"/>
+    <mergeCell ref="D1731:D1736"/>
+    <mergeCell ref="J1731:J1736"/>
+    <mergeCell ref="K1731:K1736"/>
+    <mergeCell ref="L1731:L1736"/>
+    <mergeCell ref="A1725:A1730"/>
+    <mergeCell ref="B1725:B1730"/>
+    <mergeCell ref="C1725:C1730"/>
+    <mergeCell ref="D1725:D1730"/>
+    <mergeCell ref="J1725:J1730"/>
+    <mergeCell ref="K1725:K1730"/>
+    <mergeCell ref="L1737:L1742"/>
+    <mergeCell ref="A1743:A1748"/>
+    <mergeCell ref="B1743:B1748"/>
+    <mergeCell ref="C1743:C1748"/>
+    <mergeCell ref="D1743:D1748"/>
+    <mergeCell ref="J1743:J1748"/>
+    <mergeCell ref="K1743:K1748"/>
+    <mergeCell ref="L1743:L1748"/>
+    <mergeCell ref="A1737:A1742"/>
+    <mergeCell ref="B1737:B1742"/>
+    <mergeCell ref="C1737:C1742"/>
+    <mergeCell ref="D1737:D1742"/>
+    <mergeCell ref="J1737:J1742"/>
+    <mergeCell ref="K1737:K1742"/>
+    <mergeCell ref="D1785:D1790"/>
+    <mergeCell ref="J1785:J1790"/>
+    <mergeCell ref="K1785:K1790"/>
+    <mergeCell ref="L1749:L1754"/>
+    <mergeCell ref="A1755:A1760"/>
+    <mergeCell ref="B1755:B1760"/>
+    <mergeCell ref="C1755:C1760"/>
+    <mergeCell ref="D1755:D1760"/>
+    <mergeCell ref="J1755:J1760"/>
+    <mergeCell ref="K1755:K1760"/>
+    <mergeCell ref="L1755:L1760"/>
+    <mergeCell ref="A1749:A1754"/>
+    <mergeCell ref="B1749:B1754"/>
+    <mergeCell ref="C1749:C1754"/>
+    <mergeCell ref="D1749:D1754"/>
+    <mergeCell ref="J1749:J1754"/>
+    <mergeCell ref="K1749:K1754"/>
+    <mergeCell ref="L1761:L1766"/>
+    <mergeCell ref="A1761:A1766"/>
+    <mergeCell ref="B1761:B1766"/>
+    <mergeCell ref="C1761:C1766"/>
+    <mergeCell ref="D1761:D1766"/>
+    <mergeCell ref="J1761:J1766"/>
+    <mergeCell ref="K1761:K1766"/>
+    <mergeCell ref="A1767:A1772"/>
+    <mergeCell ref="B1767:B1772"/>
+    <mergeCell ref="C1767:C1772"/>
+    <mergeCell ref="D1767:D1772"/>
+    <mergeCell ref="J1767:J1772"/>
+    <mergeCell ref="K1767:K1772"/>
+    <mergeCell ref="L1767:L1772"/>
     <mergeCell ref="L1797:L1802"/>
     <mergeCell ref="A1797:A1802"/>
     <mergeCell ref="B1797:B1802"/>
@@ -59288,2076 +61352,6 @@
     <mergeCell ref="A1785:A1790"/>
     <mergeCell ref="B1785:B1790"/>
     <mergeCell ref="C1785:C1790"/>
-    <mergeCell ref="D1785:D1790"/>
-    <mergeCell ref="J1785:J1790"/>
-    <mergeCell ref="K1785:K1790"/>
-    <mergeCell ref="L1749:L1754"/>
-    <mergeCell ref="A1755:A1760"/>
-    <mergeCell ref="B1755:B1760"/>
-    <mergeCell ref="C1755:C1760"/>
-    <mergeCell ref="D1755:D1760"/>
-    <mergeCell ref="J1755:J1760"/>
-    <mergeCell ref="K1755:K1760"/>
-    <mergeCell ref="L1755:L1760"/>
-    <mergeCell ref="A1749:A1754"/>
-    <mergeCell ref="B1749:B1754"/>
-    <mergeCell ref="C1749:C1754"/>
-    <mergeCell ref="D1749:D1754"/>
-    <mergeCell ref="J1749:J1754"/>
-    <mergeCell ref="K1749:K1754"/>
-    <mergeCell ref="L1761:L1766"/>
-    <mergeCell ref="A1761:A1766"/>
-    <mergeCell ref="B1761:B1766"/>
-    <mergeCell ref="C1761:C1766"/>
-    <mergeCell ref="D1761:D1766"/>
-    <mergeCell ref="J1761:J1766"/>
-    <mergeCell ref="K1761:K1766"/>
-    <mergeCell ref="A1767:A1772"/>
-    <mergeCell ref="B1767:B1772"/>
-    <mergeCell ref="C1767:C1772"/>
-    <mergeCell ref="D1767:D1772"/>
-    <mergeCell ref="J1767:J1772"/>
-    <mergeCell ref="K1767:K1772"/>
-    <mergeCell ref="L1767:L1772"/>
-    <mergeCell ref="L1725:L1730"/>
-    <mergeCell ref="A1731:A1736"/>
-    <mergeCell ref="B1731:B1736"/>
-    <mergeCell ref="C1731:C1736"/>
-    <mergeCell ref="D1731:D1736"/>
-    <mergeCell ref="J1731:J1736"/>
-    <mergeCell ref="K1731:K1736"/>
-    <mergeCell ref="L1731:L1736"/>
-    <mergeCell ref="A1725:A1730"/>
-    <mergeCell ref="B1725:B1730"/>
-    <mergeCell ref="C1725:C1730"/>
-    <mergeCell ref="D1725:D1730"/>
-    <mergeCell ref="J1725:J1730"/>
-    <mergeCell ref="K1725:K1730"/>
-    <mergeCell ref="L1737:L1742"/>
-    <mergeCell ref="A1743:A1748"/>
-    <mergeCell ref="B1743:B1748"/>
-    <mergeCell ref="C1743:C1748"/>
-    <mergeCell ref="D1743:D1748"/>
-    <mergeCell ref="J1743:J1748"/>
-    <mergeCell ref="K1743:K1748"/>
-    <mergeCell ref="L1743:L1748"/>
-    <mergeCell ref="A1737:A1742"/>
-    <mergeCell ref="B1737:B1742"/>
-    <mergeCell ref="C1737:C1742"/>
-    <mergeCell ref="D1737:D1742"/>
-    <mergeCell ref="J1737:J1742"/>
-    <mergeCell ref="K1737:K1742"/>
-    <mergeCell ref="L1701:L1706"/>
-    <mergeCell ref="A1707:A1712"/>
-    <mergeCell ref="B1707:B1712"/>
-    <mergeCell ref="C1707:C1712"/>
-    <mergeCell ref="D1707:D1712"/>
-    <mergeCell ref="J1707:J1712"/>
-    <mergeCell ref="K1707:K1712"/>
-    <mergeCell ref="L1707:L1712"/>
-    <mergeCell ref="A1701:A1706"/>
-    <mergeCell ref="B1701:B1706"/>
-    <mergeCell ref="C1701:C1706"/>
-    <mergeCell ref="D1701:D1706"/>
-    <mergeCell ref="J1701:J1706"/>
-    <mergeCell ref="K1701:K1706"/>
-    <mergeCell ref="L1713:L1718"/>
-    <mergeCell ref="A1719:A1724"/>
-    <mergeCell ref="B1719:B1724"/>
-    <mergeCell ref="C1719:C1724"/>
-    <mergeCell ref="D1719:D1724"/>
-    <mergeCell ref="J1719:J1724"/>
-    <mergeCell ref="K1719:K1724"/>
-    <mergeCell ref="L1719:L1724"/>
-    <mergeCell ref="A1713:A1718"/>
-    <mergeCell ref="B1713:B1718"/>
-    <mergeCell ref="C1713:C1718"/>
-    <mergeCell ref="D1713:D1718"/>
-    <mergeCell ref="J1713:J1718"/>
-    <mergeCell ref="K1713:K1718"/>
-    <mergeCell ref="L1677:L1682"/>
-    <mergeCell ref="A1683:A1688"/>
-    <mergeCell ref="B1683:B1688"/>
-    <mergeCell ref="C1683:C1688"/>
-    <mergeCell ref="D1683:D1688"/>
-    <mergeCell ref="J1683:J1688"/>
-    <mergeCell ref="K1683:K1688"/>
-    <mergeCell ref="L1683:L1688"/>
-    <mergeCell ref="A1677:A1682"/>
-    <mergeCell ref="B1677:B1682"/>
-    <mergeCell ref="C1677:C1682"/>
-    <mergeCell ref="D1677:D1682"/>
-    <mergeCell ref="J1677:J1682"/>
-    <mergeCell ref="K1677:K1682"/>
-    <mergeCell ref="L1689:L1694"/>
-    <mergeCell ref="A1695:A1700"/>
-    <mergeCell ref="B1695:B1700"/>
-    <mergeCell ref="C1695:C1700"/>
-    <mergeCell ref="D1695:D1700"/>
-    <mergeCell ref="J1695:J1700"/>
-    <mergeCell ref="K1695:K1700"/>
-    <mergeCell ref="L1695:L1700"/>
-    <mergeCell ref="A1689:A1694"/>
-    <mergeCell ref="B1689:B1694"/>
-    <mergeCell ref="C1689:C1694"/>
-    <mergeCell ref="D1689:D1694"/>
-    <mergeCell ref="J1689:J1694"/>
-    <mergeCell ref="K1689:K1694"/>
-    <mergeCell ref="L1653:L1658"/>
-    <mergeCell ref="A1659:A1664"/>
-    <mergeCell ref="B1659:B1664"/>
-    <mergeCell ref="C1659:C1664"/>
-    <mergeCell ref="D1659:D1664"/>
-    <mergeCell ref="J1659:J1664"/>
-    <mergeCell ref="K1659:K1664"/>
-    <mergeCell ref="L1659:L1664"/>
-    <mergeCell ref="A1653:A1658"/>
-    <mergeCell ref="B1653:B1658"/>
-    <mergeCell ref="C1653:C1658"/>
-    <mergeCell ref="D1653:D1658"/>
-    <mergeCell ref="J1653:J1658"/>
-    <mergeCell ref="K1653:K1658"/>
-    <mergeCell ref="L1665:L1670"/>
-    <mergeCell ref="A1671:A1676"/>
-    <mergeCell ref="B1671:B1676"/>
-    <mergeCell ref="C1671:C1676"/>
-    <mergeCell ref="D1671:D1676"/>
-    <mergeCell ref="J1671:J1676"/>
-    <mergeCell ref="K1671:K1676"/>
-    <mergeCell ref="L1671:L1676"/>
-    <mergeCell ref="A1665:A1670"/>
-    <mergeCell ref="B1665:B1670"/>
-    <mergeCell ref="C1665:C1670"/>
-    <mergeCell ref="D1665:D1670"/>
-    <mergeCell ref="J1665:J1670"/>
-    <mergeCell ref="K1665:K1670"/>
-    <mergeCell ref="L1629:L1634"/>
-    <mergeCell ref="A1635:A1640"/>
-    <mergeCell ref="B1635:B1640"/>
-    <mergeCell ref="C1635:C1640"/>
-    <mergeCell ref="D1635:D1640"/>
-    <mergeCell ref="J1635:J1640"/>
-    <mergeCell ref="K1635:K1640"/>
-    <mergeCell ref="L1635:L1640"/>
-    <mergeCell ref="A1629:A1634"/>
-    <mergeCell ref="B1629:B1634"/>
-    <mergeCell ref="C1629:C1634"/>
-    <mergeCell ref="D1629:D1634"/>
-    <mergeCell ref="J1629:J1634"/>
-    <mergeCell ref="K1629:K1634"/>
-    <mergeCell ref="L1641:L1646"/>
-    <mergeCell ref="A1647:A1652"/>
-    <mergeCell ref="B1647:B1652"/>
-    <mergeCell ref="C1647:C1652"/>
-    <mergeCell ref="D1647:D1652"/>
-    <mergeCell ref="J1647:J1652"/>
-    <mergeCell ref="K1647:K1652"/>
-    <mergeCell ref="L1647:L1652"/>
-    <mergeCell ref="A1641:A1646"/>
-    <mergeCell ref="B1641:B1646"/>
-    <mergeCell ref="C1641:C1646"/>
-    <mergeCell ref="D1641:D1646"/>
-    <mergeCell ref="J1641:J1646"/>
-    <mergeCell ref="K1641:K1646"/>
-    <mergeCell ref="L1605:L1610"/>
-    <mergeCell ref="A1611:A1616"/>
-    <mergeCell ref="B1611:B1616"/>
-    <mergeCell ref="C1611:C1616"/>
-    <mergeCell ref="D1611:D1616"/>
-    <mergeCell ref="J1611:J1616"/>
-    <mergeCell ref="K1611:K1616"/>
-    <mergeCell ref="L1611:L1616"/>
-    <mergeCell ref="A1605:A1610"/>
-    <mergeCell ref="B1605:B1610"/>
-    <mergeCell ref="C1605:C1610"/>
-    <mergeCell ref="D1605:D1610"/>
-    <mergeCell ref="J1605:J1610"/>
-    <mergeCell ref="K1605:K1610"/>
-    <mergeCell ref="L1617:L1622"/>
-    <mergeCell ref="A1623:A1628"/>
-    <mergeCell ref="B1623:B1628"/>
-    <mergeCell ref="C1623:C1628"/>
-    <mergeCell ref="D1623:D1628"/>
-    <mergeCell ref="J1623:J1628"/>
-    <mergeCell ref="K1623:K1628"/>
-    <mergeCell ref="L1623:L1628"/>
-    <mergeCell ref="A1617:A1622"/>
-    <mergeCell ref="B1617:B1622"/>
-    <mergeCell ref="C1617:C1622"/>
-    <mergeCell ref="D1617:D1622"/>
-    <mergeCell ref="J1617:J1622"/>
-    <mergeCell ref="K1617:K1622"/>
-    <mergeCell ref="L1581:L1586"/>
-    <mergeCell ref="A1587:A1592"/>
-    <mergeCell ref="B1587:B1592"/>
-    <mergeCell ref="C1587:C1592"/>
-    <mergeCell ref="D1587:D1592"/>
-    <mergeCell ref="J1587:J1592"/>
-    <mergeCell ref="K1587:K1592"/>
-    <mergeCell ref="L1587:L1592"/>
-    <mergeCell ref="A1581:A1586"/>
-    <mergeCell ref="B1581:B1586"/>
-    <mergeCell ref="C1581:C1586"/>
-    <mergeCell ref="D1581:D1586"/>
-    <mergeCell ref="J1581:J1586"/>
-    <mergeCell ref="K1581:K1586"/>
-    <mergeCell ref="L1593:L1598"/>
-    <mergeCell ref="A1599:A1604"/>
-    <mergeCell ref="B1599:B1604"/>
-    <mergeCell ref="C1599:C1604"/>
-    <mergeCell ref="D1599:D1604"/>
-    <mergeCell ref="J1599:J1604"/>
-    <mergeCell ref="K1599:K1604"/>
-    <mergeCell ref="L1599:L1604"/>
-    <mergeCell ref="A1593:A1598"/>
-    <mergeCell ref="B1593:B1598"/>
-    <mergeCell ref="C1593:C1598"/>
-    <mergeCell ref="D1593:D1598"/>
-    <mergeCell ref="J1593:J1598"/>
-    <mergeCell ref="K1593:K1598"/>
-    <mergeCell ref="L1557:L1562"/>
-    <mergeCell ref="A1563:A1568"/>
-    <mergeCell ref="B1563:B1568"/>
-    <mergeCell ref="C1563:C1568"/>
-    <mergeCell ref="D1563:D1568"/>
-    <mergeCell ref="J1563:J1568"/>
-    <mergeCell ref="K1563:K1568"/>
-    <mergeCell ref="L1563:L1568"/>
-    <mergeCell ref="A1557:A1562"/>
-    <mergeCell ref="B1557:B1562"/>
-    <mergeCell ref="C1557:C1562"/>
-    <mergeCell ref="D1557:D1562"/>
-    <mergeCell ref="J1557:J1562"/>
-    <mergeCell ref="K1557:K1562"/>
-    <mergeCell ref="L1569:L1574"/>
-    <mergeCell ref="A1575:A1580"/>
-    <mergeCell ref="B1575:B1580"/>
-    <mergeCell ref="C1575:C1580"/>
-    <mergeCell ref="D1575:D1580"/>
-    <mergeCell ref="J1575:J1580"/>
-    <mergeCell ref="K1575:K1580"/>
-    <mergeCell ref="L1575:L1580"/>
-    <mergeCell ref="A1569:A1574"/>
-    <mergeCell ref="B1569:B1574"/>
-    <mergeCell ref="C1569:C1574"/>
-    <mergeCell ref="D1569:D1574"/>
-    <mergeCell ref="J1569:J1574"/>
-    <mergeCell ref="K1569:K1574"/>
-    <mergeCell ref="L1533:L1538"/>
-    <mergeCell ref="A1539:A1544"/>
-    <mergeCell ref="B1539:B1544"/>
-    <mergeCell ref="C1539:C1544"/>
-    <mergeCell ref="D1539:D1544"/>
-    <mergeCell ref="J1539:J1544"/>
-    <mergeCell ref="K1539:K1544"/>
-    <mergeCell ref="L1539:L1544"/>
-    <mergeCell ref="A1533:A1538"/>
-    <mergeCell ref="B1533:B1538"/>
-    <mergeCell ref="C1533:C1538"/>
-    <mergeCell ref="D1533:D1538"/>
-    <mergeCell ref="J1533:J1538"/>
-    <mergeCell ref="K1533:K1538"/>
-    <mergeCell ref="L1545:L1550"/>
-    <mergeCell ref="A1551:A1556"/>
-    <mergeCell ref="B1551:B1556"/>
-    <mergeCell ref="C1551:C1556"/>
-    <mergeCell ref="D1551:D1556"/>
-    <mergeCell ref="J1551:J1556"/>
-    <mergeCell ref="K1551:K1556"/>
-    <mergeCell ref="L1551:L1556"/>
-    <mergeCell ref="A1545:A1550"/>
-    <mergeCell ref="B1545:B1550"/>
-    <mergeCell ref="C1545:C1550"/>
-    <mergeCell ref="D1545:D1550"/>
-    <mergeCell ref="J1545:J1550"/>
-    <mergeCell ref="K1545:K1550"/>
-    <mergeCell ref="L1521:L1526"/>
-    <mergeCell ref="A1479:A1484"/>
-    <mergeCell ref="B1479:B1484"/>
-    <mergeCell ref="C1479:C1484"/>
-    <mergeCell ref="D1479:D1484"/>
-    <mergeCell ref="J1479:J1484"/>
-    <mergeCell ref="K1479:K1484"/>
-    <mergeCell ref="L1479:L1484"/>
-    <mergeCell ref="A1527:A1532"/>
-    <mergeCell ref="B1527:B1532"/>
-    <mergeCell ref="C1527:C1532"/>
-    <mergeCell ref="D1527:D1532"/>
-    <mergeCell ref="J1527:J1532"/>
-    <mergeCell ref="K1527:K1532"/>
-    <mergeCell ref="L1527:L1532"/>
-    <mergeCell ref="A1521:A1526"/>
-    <mergeCell ref="B1521:B1526"/>
-    <mergeCell ref="C1521:C1526"/>
-    <mergeCell ref="D1521:D1526"/>
-    <mergeCell ref="J1521:J1526"/>
-    <mergeCell ref="K1521:K1526"/>
-    <mergeCell ref="C1497:C1502"/>
-    <mergeCell ref="D1497:D1502"/>
-    <mergeCell ref="J1497:J1502"/>
-    <mergeCell ref="K1497:K1502"/>
-    <mergeCell ref="A1491:A1496"/>
-    <mergeCell ref="B1491:B1496"/>
-    <mergeCell ref="C1491:C1496"/>
-    <mergeCell ref="D1491:D1496"/>
-    <mergeCell ref="C1449:C1454"/>
-    <mergeCell ref="D1449:D1454"/>
-    <mergeCell ref="J1449:J1454"/>
-    <mergeCell ref="K1449:K1454"/>
-    <mergeCell ref="D1443:D1448"/>
-    <mergeCell ref="J1491:J1496"/>
-    <mergeCell ref="A1473:A1478"/>
-    <mergeCell ref="L1509:L1514"/>
-    <mergeCell ref="A1515:A1520"/>
-    <mergeCell ref="B1515:B1520"/>
-    <mergeCell ref="C1515:C1520"/>
-    <mergeCell ref="D1515:D1520"/>
-    <mergeCell ref="J1515:J1520"/>
-    <mergeCell ref="K1515:K1520"/>
-    <mergeCell ref="L1515:L1520"/>
-    <mergeCell ref="A1509:A1514"/>
-    <mergeCell ref="B1509:B1514"/>
-    <mergeCell ref="C1509:C1514"/>
-    <mergeCell ref="D1509:D1514"/>
-    <mergeCell ref="J1509:J1514"/>
-    <mergeCell ref="K1509:K1514"/>
-    <mergeCell ref="L1485:L1490"/>
-    <mergeCell ref="L1497:L1502"/>
-    <mergeCell ref="A1503:A1508"/>
-    <mergeCell ref="B1503:B1508"/>
-    <mergeCell ref="C1503:C1508"/>
-    <mergeCell ref="D1503:D1508"/>
-    <mergeCell ref="J1503:J1508"/>
-    <mergeCell ref="K1503:K1508"/>
-    <mergeCell ref="L1503:L1508"/>
-    <mergeCell ref="A1497:A1502"/>
-    <mergeCell ref="B1497:B1502"/>
-    <mergeCell ref="K1443:K1448"/>
-    <mergeCell ref="J1443:J1448"/>
-    <mergeCell ref="B1473:B1478"/>
-    <mergeCell ref="K1491:K1496"/>
-    <mergeCell ref="L1491:L1496"/>
-    <mergeCell ref="A1485:A1490"/>
-    <mergeCell ref="B1485:B1490"/>
-    <mergeCell ref="C1485:C1490"/>
-    <mergeCell ref="D1485:D1490"/>
-    <mergeCell ref="J1485:J1490"/>
-    <mergeCell ref="K1455:K1460"/>
-    <mergeCell ref="L1455:L1460"/>
-    <mergeCell ref="A1449:A1454"/>
-    <mergeCell ref="B1449:B1454"/>
-    <mergeCell ref="A1467:A1472"/>
-    <mergeCell ref="B1467:B1472"/>
-    <mergeCell ref="C1467:C1472"/>
-    <mergeCell ref="D1467:D1472"/>
-    <mergeCell ref="J1467:J1472"/>
-    <mergeCell ref="L1449:L1454"/>
-    <mergeCell ref="K1461:K1466"/>
-    <mergeCell ref="J1461:J1466"/>
-    <mergeCell ref="K1485:K1490"/>
-    <mergeCell ref="L1461:L1466"/>
-    <mergeCell ref="L1467:L1472"/>
-    <mergeCell ref="L1473:L1478"/>
-    <mergeCell ref="K1467:K1472"/>
-    <mergeCell ref="C1473:C1478"/>
-    <mergeCell ref="D1473:D1478"/>
-    <mergeCell ref="J1473:J1478"/>
-    <mergeCell ref="K1473:K1478"/>
-    <mergeCell ref="L1443:L1448"/>
-    <mergeCell ref="A1419:A1424"/>
-    <mergeCell ref="B1419:B1424"/>
-    <mergeCell ref="C1419:C1424"/>
-    <mergeCell ref="D1419:D1424"/>
-    <mergeCell ref="J1419:J1424"/>
-    <mergeCell ref="K1419:K1424"/>
-    <mergeCell ref="L1419:L1424"/>
-    <mergeCell ref="D1425:D1430"/>
-    <mergeCell ref="J1425:J1430"/>
-    <mergeCell ref="K1425:K1430"/>
-    <mergeCell ref="L1425:L1430"/>
-    <mergeCell ref="K1437:K1442"/>
-    <mergeCell ref="L1437:L1442"/>
-    <mergeCell ref="L1431:L1436"/>
-    <mergeCell ref="D1437:D1442"/>
-    <mergeCell ref="J1437:J1442"/>
-    <mergeCell ref="D1431:D1436"/>
-    <mergeCell ref="J1431:J1436"/>
-    <mergeCell ref="K1431:K1436"/>
-    <mergeCell ref="C1437:C1442"/>
-    <mergeCell ref="D1407:D1412"/>
-    <mergeCell ref="J1407:J1412"/>
-    <mergeCell ref="K1407:K1412"/>
-    <mergeCell ref="L1407:L1412"/>
-    <mergeCell ref="A1413:A1418"/>
-    <mergeCell ref="B1413:B1418"/>
-    <mergeCell ref="C1413:C1418"/>
-    <mergeCell ref="D1413:D1418"/>
-    <mergeCell ref="J1413:J1418"/>
-    <mergeCell ref="K1413:K1418"/>
-    <mergeCell ref="A1407:A1412"/>
-    <mergeCell ref="B1407:B1412"/>
-    <mergeCell ref="L1413:L1418"/>
-    <mergeCell ref="K1383:K1388"/>
-    <mergeCell ref="L1383:L1388"/>
-    <mergeCell ref="A1389:A1394"/>
-    <mergeCell ref="B1389:B1394"/>
-    <mergeCell ref="C1389:C1394"/>
-    <mergeCell ref="D1389:D1394"/>
-    <mergeCell ref="J1389:J1394"/>
-    <mergeCell ref="K1389:K1394"/>
-    <mergeCell ref="L1389:L1394"/>
-    <mergeCell ref="A1383:A1388"/>
-    <mergeCell ref="K1395:K1400"/>
-    <mergeCell ref="L1395:L1400"/>
-    <mergeCell ref="A1401:A1406"/>
-    <mergeCell ref="B1401:B1406"/>
-    <mergeCell ref="C1401:C1406"/>
-    <mergeCell ref="D1401:D1406"/>
-    <mergeCell ref="J1401:J1406"/>
-    <mergeCell ref="K1401:K1406"/>
-    <mergeCell ref="L1401:L1406"/>
-    <mergeCell ref="J1395:J1400"/>
-    <mergeCell ref="J1383:J1388"/>
-    <mergeCell ref="C1371:C1376"/>
-    <mergeCell ref="D1371:D1376"/>
-    <mergeCell ref="J1371:J1376"/>
-    <mergeCell ref="K1371:K1376"/>
-    <mergeCell ref="L1341:L1346"/>
-    <mergeCell ref="L1347:L1352"/>
-    <mergeCell ref="L1353:L1358"/>
-    <mergeCell ref="L1371:L1376"/>
-    <mergeCell ref="A1377:A1382"/>
-    <mergeCell ref="B1377:B1382"/>
-    <mergeCell ref="C1377:C1382"/>
-    <mergeCell ref="D1377:D1382"/>
-    <mergeCell ref="J1377:J1382"/>
-    <mergeCell ref="K1377:K1382"/>
-    <mergeCell ref="L1377:L1382"/>
-    <mergeCell ref="A1371:A1376"/>
-    <mergeCell ref="B1371:B1376"/>
-    <mergeCell ref="L1335:L1340"/>
-    <mergeCell ref="L1359:L1364"/>
-    <mergeCell ref="A1353:A1358"/>
-    <mergeCell ref="B1353:B1358"/>
-    <mergeCell ref="C1365:C1370"/>
-    <mergeCell ref="D1365:D1370"/>
-    <mergeCell ref="J1365:J1370"/>
-    <mergeCell ref="K1365:K1370"/>
-    <mergeCell ref="L1365:L1370"/>
-    <mergeCell ref="A1359:A1364"/>
-    <mergeCell ref="B1359:B1364"/>
-    <mergeCell ref="C1359:C1364"/>
-    <mergeCell ref="D1359:D1364"/>
-    <mergeCell ref="J1359:J1364"/>
-    <mergeCell ref="K1359:K1364"/>
-    <mergeCell ref="J1353:J1358"/>
-    <mergeCell ref="K1353:K1358"/>
-    <mergeCell ref="A1329:A1334"/>
-    <mergeCell ref="B1329:B1334"/>
-    <mergeCell ref="A1347:A1352"/>
-    <mergeCell ref="B1347:B1352"/>
-    <mergeCell ref="C1347:C1352"/>
-    <mergeCell ref="D1347:D1352"/>
-    <mergeCell ref="J1347:J1352"/>
-    <mergeCell ref="K1347:K1352"/>
-    <mergeCell ref="A1335:A1340"/>
-    <mergeCell ref="B1335:B1340"/>
-    <mergeCell ref="C1335:C1340"/>
-    <mergeCell ref="D1335:D1340"/>
-    <mergeCell ref="L1299:L1304"/>
-    <mergeCell ref="B1305:B1310"/>
-    <mergeCell ref="C1305:C1310"/>
-    <mergeCell ref="D1305:D1310"/>
-    <mergeCell ref="J1305:J1310"/>
-    <mergeCell ref="K1305:K1310"/>
-    <mergeCell ref="L1305:L1310"/>
-    <mergeCell ref="B1299:B1304"/>
-    <mergeCell ref="C1299:C1304"/>
-    <mergeCell ref="D1299:D1304"/>
-    <mergeCell ref="J1299:J1304"/>
-    <mergeCell ref="K1299:K1304"/>
-    <mergeCell ref="L1329:L1334"/>
-    <mergeCell ref="L1317:L1322"/>
-    <mergeCell ref="A1311:A1316"/>
-    <mergeCell ref="B1311:B1316"/>
-    <mergeCell ref="C1311:C1316"/>
-    <mergeCell ref="D1311:D1316"/>
-    <mergeCell ref="J1311:J1316"/>
-    <mergeCell ref="K1311:K1316"/>
-    <mergeCell ref="L1323:L1328"/>
-    <mergeCell ref="C1329:C1334"/>
-    <mergeCell ref="A1323:A1328"/>
-    <mergeCell ref="B1323:B1328"/>
-    <mergeCell ref="K1329:K1334"/>
-    <mergeCell ref="D1329:D1334"/>
-    <mergeCell ref="J1329:J1334"/>
-    <mergeCell ref="L1311:L1316"/>
-    <mergeCell ref="A1317:A1322"/>
-    <mergeCell ref="B1317:B1322"/>
-    <mergeCell ref="C1317:C1322"/>
-    <mergeCell ref="D1317:D1322"/>
-    <mergeCell ref="J1317:J1322"/>
-    <mergeCell ref="K1275:K1280"/>
-    <mergeCell ref="L1275:L1280"/>
-    <mergeCell ref="A1281:A1286"/>
-    <mergeCell ref="B1281:B1286"/>
-    <mergeCell ref="C1281:C1286"/>
-    <mergeCell ref="D1281:D1286"/>
-    <mergeCell ref="J1281:J1286"/>
-    <mergeCell ref="K1281:K1286"/>
-    <mergeCell ref="L1281:L1286"/>
-    <mergeCell ref="J1275:J1280"/>
-    <mergeCell ref="A1275:A1280"/>
-    <mergeCell ref="B1275:B1280"/>
-    <mergeCell ref="C1275:C1280"/>
-    <mergeCell ref="D1275:D1280"/>
-    <mergeCell ref="J1287:J1292"/>
-    <mergeCell ref="K1287:K1292"/>
-    <mergeCell ref="L1287:L1292"/>
-    <mergeCell ref="A1293:A1298"/>
-    <mergeCell ref="B1293:B1298"/>
-    <mergeCell ref="C1293:C1298"/>
-    <mergeCell ref="D1293:D1298"/>
-    <mergeCell ref="J1293:J1298"/>
-    <mergeCell ref="K1293:K1298"/>
-    <mergeCell ref="L1293:L1298"/>
-    <mergeCell ref="A1287:A1292"/>
-    <mergeCell ref="B1287:B1292"/>
-    <mergeCell ref="C1287:C1292"/>
-    <mergeCell ref="D1287:D1292"/>
-    <mergeCell ref="J1251:J1256"/>
-    <mergeCell ref="K1251:K1256"/>
-    <mergeCell ref="L1251:L1256"/>
-    <mergeCell ref="A1257:A1262"/>
-    <mergeCell ref="B1257:B1262"/>
-    <mergeCell ref="C1257:C1262"/>
-    <mergeCell ref="D1257:D1262"/>
-    <mergeCell ref="J1257:J1262"/>
-    <mergeCell ref="K1257:K1262"/>
-    <mergeCell ref="L1257:L1262"/>
-    <mergeCell ref="A1251:A1256"/>
-    <mergeCell ref="B1251:B1256"/>
-    <mergeCell ref="C1251:C1256"/>
-    <mergeCell ref="D1251:D1256"/>
-    <mergeCell ref="K1263:K1268"/>
-    <mergeCell ref="L1263:L1268"/>
-    <mergeCell ref="A1269:A1274"/>
-    <mergeCell ref="B1269:B1274"/>
-    <mergeCell ref="C1269:C1274"/>
-    <mergeCell ref="D1269:D1274"/>
-    <mergeCell ref="J1269:J1274"/>
-    <mergeCell ref="K1269:K1274"/>
-    <mergeCell ref="L1269:L1274"/>
-    <mergeCell ref="J1263:J1268"/>
-    <mergeCell ref="A1263:A1268"/>
-    <mergeCell ref="B1263:B1268"/>
-    <mergeCell ref="C1263:C1268"/>
-    <mergeCell ref="D1263:D1268"/>
-    <mergeCell ref="K1233:K1238"/>
-    <mergeCell ref="L1227:L1232"/>
-    <mergeCell ref="L1233:L1238"/>
-    <mergeCell ref="A1227:A1232"/>
-    <mergeCell ref="B1227:B1232"/>
-    <mergeCell ref="C1227:C1232"/>
-    <mergeCell ref="D1227:D1232"/>
-    <mergeCell ref="J1227:J1232"/>
-    <mergeCell ref="K1227:K1232"/>
-    <mergeCell ref="L1203:L1208"/>
-    <mergeCell ref="L1239:L1244"/>
-    <mergeCell ref="A1233:A1238"/>
-    <mergeCell ref="B1233:B1238"/>
-    <mergeCell ref="C1245:C1250"/>
-    <mergeCell ref="D1245:D1250"/>
-    <mergeCell ref="J1245:J1250"/>
-    <mergeCell ref="K1245:K1250"/>
-    <mergeCell ref="L1245:L1250"/>
-    <mergeCell ref="A1239:A1244"/>
-    <mergeCell ref="B1239:B1244"/>
-    <mergeCell ref="J1239:J1244"/>
-    <mergeCell ref="K1239:K1244"/>
-    <mergeCell ref="C1233:C1238"/>
-    <mergeCell ref="D1233:D1238"/>
-    <mergeCell ref="J1233:J1238"/>
-    <mergeCell ref="K1221:K1226"/>
-    <mergeCell ref="L1221:L1226"/>
-    <mergeCell ref="A1221:A1226"/>
-    <mergeCell ref="B1221:B1226"/>
-    <mergeCell ref="C1221:C1226"/>
-    <mergeCell ref="J1215:J1220"/>
-    <mergeCell ref="K1215:K1220"/>
-    <mergeCell ref="L1215:L1220"/>
-    <mergeCell ref="A1209:A1214"/>
-    <mergeCell ref="B1209:B1214"/>
-    <mergeCell ref="L1209:L1214"/>
-    <mergeCell ref="J1185:J1190"/>
-    <mergeCell ref="K1185:K1190"/>
-    <mergeCell ref="L1185:L1190"/>
-    <mergeCell ref="K1197:K1202"/>
-    <mergeCell ref="L1197:L1202"/>
-    <mergeCell ref="L1191:L1196"/>
-    <mergeCell ref="J1197:J1202"/>
-    <mergeCell ref="J1191:J1196"/>
-    <mergeCell ref="K1191:K1196"/>
-    <mergeCell ref="C1209:C1214"/>
-    <mergeCell ref="D1209:D1214"/>
-    <mergeCell ref="J1209:J1214"/>
-    <mergeCell ref="K1209:K1214"/>
-    <mergeCell ref="D1203:D1208"/>
-    <mergeCell ref="C1197:C1202"/>
-    <mergeCell ref="D1197:D1202"/>
-    <mergeCell ref="K1203:K1208"/>
-    <mergeCell ref="B1185:B1190"/>
-    <mergeCell ref="C1185:C1190"/>
-    <mergeCell ref="A1191:A1196"/>
-    <mergeCell ref="D1221:D1226"/>
-    <mergeCell ref="A1215:A1220"/>
-    <mergeCell ref="B1215:B1220"/>
-    <mergeCell ref="K1167:K1172"/>
-    <mergeCell ref="L1167:L1172"/>
-    <mergeCell ref="A1173:A1178"/>
-    <mergeCell ref="B1173:B1178"/>
-    <mergeCell ref="C1173:C1178"/>
-    <mergeCell ref="D1173:D1178"/>
-    <mergeCell ref="J1173:J1178"/>
-    <mergeCell ref="K1173:K1178"/>
-    <mergeCell ref="A1167:A1172"/>
-    <mergeCell ref="B1167:B1172"/>
-    <mergeCell ref="L1173:L1178"/>
-    <mergeCell ref="A1179:A1184"/>
-    <mergeCell ref="B1179:B1184"/>
-    <mergeCell ref="C1179:C1184"/>
-    <mergeCell ref="D1179:D1184"/>
-    <mergeCell ref="J1179:J1184"/>
-    <mergeCell ref="K1179:K1184"/>
-    <mergeCell ref="L1179:L1184"/>
-    <mergeCell ref="C1167:C1172"/>
-    <mergeCell ref="K1143:K1148"/>
-    <mergeCell ref="L1143:L1148"/>
-    <mergeCell ref="A1149:A1154"/>
-    <mergeCell ref="B1149:B1154"/>
-    <mergeCell ref="C1149:C1154"/>
-    <mergeCell ref="D1149:D1154"/>
-    <mergeCell ref="J1149:J1154"/>
-    <mergeCell ref="K1149:K1154"/>
-    <mergeCell ref="L1149:L1154"/>
-    <mergeCell ref="A1143:A1148"/>
-    <mergeCell ref="K1155:K1160"/>
-    <mergeCell ref="L1155:L1160"/>
-    <mergeCell ref="A1161:A1166"/>
-    <mergeCell ref="B1161:B1166"/>
-    <mergeCell ref="C1161:C1166"/>
-    <mergeCell ref="D1161:D1166"/>
-    <mergeCell ref="J1161:J1166"/>
-    <mergeCell ref="K1161:K1166"/>
-    <mergeCell ref="L1161:L1166"/>
-    <mergeCell ref="A1155:A1160"/>
-    <mergeCell ref="B1155:B1160"/>
-    <mergeCell ref="C1155:C1160"/>
-    <mergeCell ref="D1155:D1160"/>
-    <mergeCell ref="K1131:K1136"/>
-    <mergeCell ref="L1101:L1106"/>
-    <mergeCell ref="L1107:L1112"/>
-    <mergeCell ref="L1113:L1118"/>
-    <mergeCell ref="L1095:L1100"/>
-    <mergeCell ref="L1119:L1124"/>
-    <mergeCell ref="A1113:A1118"/>
-    <mergeCell ref="B1113:B1118"/>
-    <mergeCell ref="C1125:C1130"/>
-    <mergeCell ref="D1125:D1130"/>
-    <mergeCell ref="J1125:J1130"/>
-    <mergeCell ref="K1125:K1130"/>
-    <mergeCell ref="L1125:L1130"/>
-    <mergeCell ref="A1119:A1124"/>
-    <mergeCell ref="B1119:B1124"/>
-    <mergeCell ref="C1119:C1124"/>
-    <mergeCell ref="D1119:D1124"/>
-    <mergeCell ref="J1119:J1124"/>
-    <mergeCell ref="K1119:K1124"/>
-    <mergeCell ref="J1113:J1118"/>
-    <mergeCell ref="K1113:K1118"/>
-    <mergeCell ref="L1131:L1136"/>
-    <mergeCell ref="B1095:B1100"/>
-    <mergeCell ref="C1095:C1100"/>
-    <mergeCell ref="D1095:D1100"/>
-    <mergeCell ref="A1083:A1088"/>
-    <mergeCell ref="B1083:B1088"/>
-    <mergeCell ref="K1101:K1106"/>
-    <mergeCell ref="J1095:J1100"/>
-    <mergeCell ref="K1095:K1100"/>
-    <mergeCell ref="K1089:K1094"/>
-    <mergeCell ref="D1089:D1094"/>
-    <mergeCell ref="J1089:J1094"/>
-    <mergeCell ref="A1137:A1142"/>
-    <mergeCell ref="B1137:B1142"/>
-    <mergeCell ref="C1137:C1142"/>
-    <mergeCell ref="D1137:D1142"/>
-    <mergeCell ref="J1137:J1142"/>
-    <mergeCell ref="K1137:K1142"/>
-    <mergeCell ref="L1089:L1094"/>
-    <mergeCell ref="L1077:L1082"/>
-    <mergeCell ref="A1071:A1076"/>
-    <mergeCell ref="B1071:B1076"/>
-    <mergeCell ref="C1071:C1076"/>
-    <mergeCell ref="D1071:D1076"/>
-    <mergeCell ref="J1071:J1076"/>
-    <mergeCell ref="K1071:K1076"/>
-    <mergeCell ref="L1083:L1088"/>
-    <mergeCell ref="C1089:C1094"/>
-    <mergeCell ref="A1089:A1094"/>
-    <mergeCell ref="B1089:B1094"/>
-    <mergeCell ref="L1137:L1142"/>
-    <mergeCell ref="A1131:A1136"/>
-    <mergeCell ref="B1131:B1136"/>
-    <mergeCell ref="C1131:C1136"/>
-    <mergeCell ref="D1131:D1136"/>
-    <mergeCell ref="J1131:J1136"/>
-    <mergeCell ref="A1047:A1052"/>
-    <mergeCell ref="B1047:B1052"/>
-    <mergeCell ref="C1047:C1052"/>
-    <mergeCell ref="D1047:D1052"/>
-    <mergeCell ref="L1071:L1076"/>
-    <mergeCell ref="L1059:L1064"/>
-    <mergeCell ref="B1065:B1070"/>
-    <mergeCell ref="C1065:C1070"/>
-    <mergeCell ref="D1065:D1070"/>
-    <mergeCell ref="J1065:J1070"/>
-    <mergeCell ref="K1065:K1070"/>
-    <mergeCell ref="L1065:L1070"/>
-    <mergeCell ref="A1059:A1064"/>
-    <mergeCell ref="B1059:B1064"/>
-    <mergeCell ref="C1059:C1064"/>
-    <mergeCell ref="D1059:D1064"/>
-    <mergeCell ref="K1053:K1058"/>
-    <mergeCell ref="L1053:L1058"/>
-    <mergeCell ref="K1059:K1064"/>
-    <mergeCell ref="A1065:A1070"/>
-    <mergeCell ref="C1011:C1016"/>
-    <mergeCell ref="D1011:D1016"/>
-    <mergeCell ref="J1047:J1052"/>
-    <mergeCell ref="K1047:K1052"/>
-    <mergeCell ref="L1047:L1052"/>
-    <mergeCell ref="L1029:L1034"/>
-    <mergeCell ref="J1023:J1028"/>
-    <mergeCell ref="J1011:J1016"/>
-    <mergeCell ref="K1011:K1016"/>
-    <mergeCell ref="L1011:L1016"/>
-    <mergeCell ref="J1017:J1022"/>
-    <mergeCell ref="K1017:K1022"/>
-    <mergeCell ref="L1017:L1022"/>
-    <mergeCell ref="B1029:B1034"/>
-    <mergeCell ref="C1029:C1034"/>
-    <mergeCell ref="D1029:D1034"/>
-    <mergeCell ref="J1029:J1034"/>
-    <mergeCell ref="K1029:K1034"/>
-    <mergeCell ref="K1035:K1040"/>
-    <mergeCell ref="L1035:L1040"/>
-    <mergeCell ref="B1041:B1046"/>
-    <mergeCell ref="C1041:C1046"/>
-    <mergeCell ref="D1041:D1046"/>
-    <mergeCell ref="J1041:J1046"/>
-    <mergeCell ref="K1041:K1046"/>
-    <mergeCell ref="L1041:L1046"/>
-    <mergeCell ref="J1035:J1040"/>
-    <mergeCell ref="B1035:B1040"/>
-    <mergeCell ref="C1035:C1040"/>
-    <mergeCell ref="D1035:D1040"/>
-    <mergeCell ref="K993:K998"/>
-    <mergeCell ref="L993:L998"/>
-    <mergeCell ref="A1005:A1010"/>
-    <mergeCell ref="B1005:B1010"/>
-    <mergeCell ref="K1023:K1028"/>
-    <mergeCell ref="L1023:L1028"/>
-    <mergeCell ref="A1017:A1022"/>
-    <mergeCell ref="B1017:B1022"/>
-    <mergeCell ref="C1017:C1022"/>
-    <mergeCell ref="D1017:D1022"/>
-    <mergeCell ref="A1023:A1028"/>
-    <mergeCell ref="B1023:B1028"/>
-    <mergeCell ref="C1023:C1028"/>
-    <mergeCell ref="D1023:D1028"/>
-    <mergeCell ref="A1011:A1016"/>
-    <mergeCell ref="B1011:B1016"/>
-    <mergeCell ref="L999:L1004"/>
-    <mergeCell ref="A993:A998"/>
-    <mergeCell ref="B993:B998"/>
-    <mergeCell ref="C1005:C1010"/>
-    <mergeCell ref="D1005:D1010"/>
-    <mergeCell ref="J1005:J1010"/>
-    <mergeCell ref="K1005:K1010"/>
-    <mergeCell ref="L1005:L1010"/>
-    <mergeCell ref="A999:A1004"/>
-    <mergeCell ref="B999:B1004"/>
-    <mergeCell ref="C999:C1004"/>
-    <mergeCell ref="D999:D1004"/>
-    <mergeCell ref="J999:J1004"/>
-    <mergeCell ref="K999:K1004"/>
-    <mergeCell ref="C993:C998"/>
-    <mergeCell ref="D993:D998"/>
-    <mergeCell ref="L969:L974"/>
-    <mergeCell ref="A969:A974"/>
-    <mergeCell ref="B969:B974"/>
-    <mergeCell ref="K963:K968"/>
-    <mergeCell ref="L963:L968"/>
-    <mergeCell ref="K987:K992"/>
-    <mergeCell ref="J975:J980"/>
-    <mergeCell ref="K975:K980"/>
-    <mergeCell ref="L975:L980"/>
-    <mergeCell ref="K981:K986"/>
-    <mergeCell ref="L981:L986"/>
-    <mergeCell ref="L987:L992"/>
-    <mergeCell ref="K945:K950"/>
-    <mergeCell ref="L945:L950"/>
-    <mergeCell ref="K957:K962"/>
-    <mergeCell ref="L957:L962"/>
-    <mergeCell ref="L951:L956"/>
-    <mergeCell ref="K951:K956"/>
-    <mergeCell ref="C969:C974"/>
-    <mergeCell ref="D969:D974"/>
-    <mergeCell ref="J969:J974"/>
-    <mergeCell ref="K969:K974"/>
-    <mergeCell ref="D963:D968"/>
-    <mergeCell ref="C957:C962"/>
-    <mergeCell ref="D957:D962"/>
-    <mergeCell ref="J957:J962"/>
-    <mergeCell ref="A987:A992"/>
-    <mergeCell ref="B987:B992"/>
-    <mergeCell ref="C987:C992"/>
-    <mergeCell ref="D987:D992"/>
-    <mergeCell ref="D927:D932"/>
-    <mergeCell ref="J927:J932"/>
-    <mergeCell ref="K927:K932"/>
-    <mergeCell ref="L927:L932"/>
-    <mergeCell ref="A933:A938"/>
-    <mergeCell ref="B933:B938"/>
-    <mergeCell ref="C933:C938"/>
-    <mergeCell ref="D933:D938"/>
-    <mergeCell ref="J933:J938"/>
-    <mergeCell ref="K933:K938"/>
-    <mergeCell ref="A927:A932"/>
-    <mergeCell ref="B927:B932"/>
-    <mergeCell ref="L933:L938"/>
-    <mergeCell ref="A939:A944"/>
-    <mergeCell ref="B939:B944"/>
-    <mergeCell ref="C939:C944"/>
-    <mergeCell ref="D939:D944"/>
-    <mergeCell ref="J939:J944"/>
-    <mergeCell ref="K939:K944"/>
-    <mergeCell ref="L939:L944"/>
-    <mergeCell ref="K903:K908"/>
-    <mergeCell ref="L903:L908"/>
-    <mergeCell ref="A909:A914"/>
-    <mergeCell ref="B909:B914"/>
-    <mergeCell ref="C909:C914"/>
-    <mergeCell ref="D909:D914"/>
-    <mergeCell ref="J909:J914"/>
-    <mergeCell ref="K909:K914"/>
-    <mergeCell ref="L909:L914"/>
-    <mergeCell ref="A903:A908"/>
-    <mergeCell ref="K915:K920"/>
-    <mergeCell ref="L915:L920"/>
-    <mergeCell ref="A921:A926"/>
-    <mergeCell ref="B921:B926"/>
-    <mergeCell ref="C921:C926"/>
-    <mergeCell ref="D921:D926"/>
-    <mergeCell ref="J921:J926"/>
-    <mergeCell ref="K921:K926"/>
-    <mergeCell ref="L921:L926"/>
-    <mergeCell ref="J915:J920"/>
-    <mergeCell ref="B903:B908"/>
-    <mergeCell ref="C903:C908"/>
-    <mergeCell ref="D903:D908"/>
-    <mergeCell ref="J903:J908"/>
-    <mergeCell ref="L879:L884"/>
-    <mergeCell ref="A873:A878"/>
-    <mergeCell ref="B873:B878"/>
-    <mergeCell ref="C885:C890"/>
-    <mergeCell ref="D885:D890"/>
-    <mergeCell ref="J885:J890"/>
-    <mergeCell ref="K885:K890"/>
-    <mergeCell ref="L885:L890"/>
-    <mergeCell ref="A879:A884"/>
-    <mergeCell ref="B879:B884"/>
-    <mergeCell ref="C879:C884"/>
-    <mergeCell ref="D879:D884"/>
-    <mergeCell ref="J879:J884"/>
-    <mergeCell ref="K879:K884"/>
-    <mergeCell ref="J873:J878"/>
-    <mergeCell ref="K873:K878"/>
-    <mergeCell ref="L891:L896"/>
-    <mergeCell ref="A897:A902"/>
-    <mergeCell ref="B897:B902"/>
-    <mergeCell ref="C897:C902"/>
-    <mergeCell ref="D897:D902"/>
-    <mergeCell ref="J897:J902"/>
-    <mergeCell ref="K897:K902"/>
-    <mergeCell ref="L897:L902"/>
-    <mergeCell ref="A891:A896"/>
-    <mergeCell ref="B891:B896"/>
-    <mergeCell ref="C891:C896"/>
-    <mergeCell ref="D891:D896"/>
-    <mergeCell ref="J891:J896"/>
-    <mergeCell ref="K891:K896"/>
-    <mergeCell ref="L867:L872"/>
-    <mergeCell ref="L873:L878"/>
-    <mergeCell ref="L855:L860"/>
-    <mergeCell ref="A849:A854"/>
-    <mergeCell ref="B849:B854"/>
-    <mergeCell ref="A867:A872"/>
-    <mergeCell ref="B867:B872"/>
-    <mergeCell ref="C867:C872"/>
-    <mergeCell ref="D867:D872"/>
-    <mergeCell ref="J867:J872"/>
-    <mergeCell ref="K867:K872"/>
-    <mergeCell ref="A855:A860"/>
-    <mergeCell ref="B855:B860"/>
-    <mergeCell ref="C855:C860"/>
-    <mergeCell ref="D855:D860"/>
-    <mergeCell ref="J855:J860"/>
-    <mergeCell ref="B885:B890"/>
-    <mergeCell ref="C873:C878"/>
-    <mergeCell ref="D873:D878"/>
-    <mergeCell ref="A825:A830"/>
-    <mergeCell ref="A843:A848"/>
-    <mergeCell ref="B843:B848"/>
-    <mergeCell ref="K861:K866"/>
-    <mergeCell ref="L861:L866"/>
-    <mergeCell ref="K855:K860"/>
-    <mergeCell ref="K849:K854"/>
-    <mergeCell ref="D849:D854"/>
-    <mergeCell ref="A819:A824"/>
-    <mergeCell ref="B819:B824"/>
-    <mergeCell ref="C819:C824"/>
-    <mergeCell ref="D819:D824"/>
-    <mergeCell ref="J819:J824"/>
-    <mergeCell ref="L819:L824"/>
-    <mergeCell ref="B825:B830"/>
-    <mergeCell ref="C825:C830"/>
-    <mergeCell ref="D825:D830"/>
-    <mergeCell ref="J825:J830"/>
-    <mergeCell ref="K825:K830"/>
-    <mergeCell ref="L825:L830"/>
-    <mergeCell ref="K819:K824"/>
-    <mergeCell ref="L849:L854"/>
-    <mergeCell ref="L837:L842"/>
-    <mergeCell ref="A831:A836"/>
-    <mergeCell ref="B831:B836"/>
-    <mergeCell ref="C831:C836"/>
-    <mergeCell ref="D831:D836"/>
-    <mergeCell ref="J831:J836"/>
-    <mergeCell ref="K831:K836"/>
-    <mergeCell ref="L843:L848"/>
-    <mergeCell ref="C849:C854"/>
-    <mergeCell ref="L831:L836"/>
-    <mergeCell ref="A837:A842"/>
-    <mergeCell ref="B837:B842"/>
-    <mergeCell ref="C837:C842"/>
-    <mergeCell ref="D837:D842"/>
-    <mergeCell ref="J837:J842"/>
-    <mergeCell ref="K795:K800"/>
-    <mergeCell ref="L795:L800"/>
-    <mergeCell ref="A801:A806"/>
-    <mergeCell ref="B801:B806"/>
-    <mergeCell ref="C801:C806"/>
-    <mergeCell ref="D801:D806"/>
-    <mergeCell ref="J801:J806"/>
-    <mergeCell ref="K801:K806"/>
-    <mergeCell ref="L801:L806"/>
-    <mergeCell ref="J795:J800"/>
-    <mergeCell ref="A795:A800"/>
-    <mergeCell ref="B795:B800"/>
-    <mergeCell ref="C795:C800"/>
-    <mergeCell ref="D795:D800"/>
-    <mergeCell ref="K807:K812"/>
-    <mergeCell ref="L807:L812"/>
-    <mergeCell ref="A813:A818"/>
-    <mergeCell ref="B813:B818"/>
-    <mergeCell ref="C813:C818"/>
-    <mergeCell ref="D813:D818"/>
-    <mergeCell ref="J813:J818"/>
-    <mergeCell ref="K813:K818"/>
-    <mergeCell ref="L813:L818"/>
-    <mergeCell ref="A807:A812"/>
-    <mergeCell ref="B807:B812"/>
-    <mergeCell ref="C807:C812"/>
-    <mergeCell ref="D807:D812"/>
-    <mergeCell ref="A771:A776"/>
-    <mergeCell ref="B771:B776"/>
-    <mergeCell ref="C771:C776"/>
-    <mergeCell ref="D771:D776"/>
-    <mergeCell ref="J807:J812"/>
-    <mergeCell ref="J777:J782"/>
-    <mergeCell ref="K777:K782"/>
-    <mergeCell ref="L777:L782"/>
-    <mergeCell ref="A783:A788"/>
-    <mergeCell ref="B783:B788"/>
-    <mergeCell ref="C783:C788"/>
-    <mergeCell ref="D783:D788"/>
-    <mergeCell ref="K747:K752"/>
-    <mergeCell ref="K783:K788"/>
-    <mergeCell ref="L783:L788"/>
-    <mergeCell ref="A789:A794"/>
-    <mergeCell ref="B789:B794"/>
-    <mergeCell ref="C789:C794"/>
-    <mergeCell ref="D789:D794"/>
-    <mergeCell ref="J789:J794"/>
-    <mergeCell ref="K789:K794"/>
-    <mergeCell ref="L789:L794"/>
-    <mergeCell ref="J783:J788"/>
-    <mergeCell ref="J771:J776"/>
-    <mergeCell ref="K771:K776"/>
-    <mergeCell ref="L771:L776"/>
-    <mergeCell ref="A777:A782"/>
-    <mergeCell ref="B777:B782"/>
-    <mergeCell ref="J765:J770"/>
-    <mergeCell ref="K765:K770"/>
-    <mergeCell ref="L765:L770"/>
-    <mergeCell ref="A759:A764"/>
-    <mergeCell ref="B759:B764"/>
-    <mergeCell ref="J759:J764"/>
-    <mergeCell ref="K759:K764"/>
-    <mergeCell ref="L723:L728"/>
-    <mergeCell ref="J741:J746"/>
-    <mergeCell ref="L759:L764"/>
-    <mergeCell ref="A753:A758"/>
-    <mergeCell ref="B753:B758"/>
-    <mergeCell ref="C753:C758"/>
-    <mergeCell ref="D753:D758"/>
-    <mergeCell ref="J753:J758"/>
-    <mergeCell ref="K753:K758"/>
-    <mergeCell ref="L747:L752"/>
-    <mergeCell ref="L753:L758"/>
-    <mergeCell ref="A747:A752"/>
-    <mergeCell ref="B747:B752"/>
-    <mergeCell ref="C747:C752"/>
-    <mergeCell ref="D747:D752"/>
-    <mergeCell ref="J747:J752"/>
-    <mergeCell ref="K741:K746"/>
-    <mergeCell ref="L741:L746"/>
-    <mergeCell ref="A741:A746"/>
-    <mergeCell ref="B741:B746"/>
-    <mergeCell ref="C741:C746"/>
-    <mergeCell ref="J735:J740"/>
-    <mergeCell ref="K735:K740"/>
-    <mergeCell ref="L735:L740"/>
-    <mergeCell ref="A729:A734"/>
-    <mergeCell ref="B729:B734"/>
-    <mergeCell ref="L729:L734"/>
-    <mergeCell ref="K705:K710"/>
-    <mergeCell ref="L705:L710"/>
-    <mergeCell ref="K717:K722"/>
-    <mergeCell ref="L717:L722"/>
-    <mergeCell ref="L711:L716"/>
-    <mergeCell ref="J717:J722"/>
-    <mergeCell ref="J711:J716"/>
-    <mergeCell ref="K711:K716"/>
-    <mergeCell ref="C729:C734"/>
-    <mergeCell ref="D729:D734"/>
-    <mergeCell ref="J729:J734"/>
-    <mergeCell ref="K729:K734"/>
-    <mergeCell ref="D723:D728"/>
-    <mergeCell ref="J723:J728"/>
-    <mergeCell ref="C717:C722"/>
-    <mergeCell ref="D717:D722"/>
-    <mergeCell ref="K723:K728"/>
-    <mergeCell ref="A693:A698"/>
-    <mergeCell ref="B693:B698"/>
-    <mergeCell ref="C693:C698"/>
-    <mergeCell ref="D693:D698"/>
-    <mergeCell ref="J693:J698"/>
-    <mergeCell ref="K693:K698"/>
-    <mergeCell ref="A687:A692"/>
-    <mergeCell ref="B687:B692"/>
-    <mergeCell ref="L693:L698"/>
-    <mergeCell ref="A699:A704"/>
-    <mergeCell ref="B699:B704"/>
-    <mergeCell ref="C699:C704"/>
-    <mergeCell ref="D699:D704"/>
-    <mergeCell ref="J699:J704"/>
-    <mergeCell ref="K699:K704"/>
-    <mergeCell ref="L699:L704"/>
-    <mergeCell ref="C687:C692"/>
-    <mergeCell ref="A681:A686"/>
-    <mergeCell ref="B681:B686"/>
-    <mergeCell ref="C681:C686"/>
-    <mergeCell ref="D681:D686"/>
-    <mergeCell ref="J681:J686"/>
-    <mergeCell ref="K681:K686"/>
-    <mergeCell ref="L681:L686"/>
-    <mergeCell ref="J675:J680"/>
-    <mergeCell ref="A675:A680"/>
-    <mergeCell ref="B675:B680"/>
-    <mergeCell ref="C675:C680"/>
-    <mergeCell ref="D675:D680"/>
-    <mergeCell ref="B663:B668"/>
-    <mergeCell ref="C663:C668"/>
-    <mergeCell ref="D663:D668"/>
-    <mergeCell ref="K687:K692"/>
-    <mergeCell ref="L687:L692"/>
-    <mergeCell ref="K633:K638"/>
-    <mergeCell ref="L651:L656"/>
-    <mergeCell ref="K663:K668"/>
-    <mergeCell ref="L663:L668"/>
-    <mergeCell ref="A669:A674"/>
-    <mergeCell ref="B669:B674"/>
-    <mergeCell ref="C669:C674"/>
-    <mergeCell ref="D669:D674"/>
-    <mergeCell ref="J669:J674"/>
-    <mergeCell ref="K669:K674"/>
-    <mergeCell ref="L669:L674"/>
-    <mergeCell ref="A663:A668"/>
-    <mergeCell ref="J663:J668"/>
-    <mergeCell ref="A657:A662"/>
-    <mergeCell ref="B657:B662"/>
-    <mergeCell ref="K675:K680"/>
-    <mergeCell ref="L675:L680"/>
-    <mergeCell ref="L609:L614"/>
-    <mergeCell ref="L597:L602"/>
-    <mergeCell ref="C657:C662"/>
-    <mergeCell ref="D657:D662"/>
-    <mergeCell ref="J657:J662"/>
-    <mergeCell ref="K657:K662"/>
-    <mergeCell ref="L657:L662"/>
-    <mergeCell ref="A651:A656"/>
-    <mergeCell ref="B651:B656"/>
-    <mergeCell ref="C651:C656"/>
-    <mergeCell ref="D651:D656"/>
-    <mergeCell ref="J651:J656"/>
-    <mergeCell ref="K651:K656"/>
-    <mergeCell ref="L621:L626"/>
-    <mergeCell ref="L627:L632"/>
-    <mergeCell ref="L633:L638"/>
-    <mergeCell ref="L615:L620"/>
-    <mergeCell ref="L639:L644"/>
-    <mergeCell ref="A633:A638"/>
-    <mergeCell ref="B633:B638"/>
-    <mergeCell ref="C645:C650"/>
-    <mergeCell ref="D645:D650"/>
-    <mergeCell ref="J645:J650"/>
-    <mergeCell ref="K645:K650"/>
-    <mergeCell ref="L645:L650"/>
-    <mergeCell ref="A639:A644"/>
-    <mergeCell ref="B639:B644"/>
-    <mergeCell ref="C639:C644"/>
-    <mergeCell ref="D639:D644"/>
-    <mergeCell ref="J639:J644"/>
-    <mergeCell ref="K639:K644"/>
-    <mergeCell ref="J633:J638"/>
-    <mergeCell ref="A627:A632"/>
-    <mergeCell ref="B627:B632"/>
-    <mergeCell ref="C627:C632"/>
-    <mergeCell ref="D627:D632"/>
-    <mergeCell ref="J627:J632"/>
-    <mergeCell ref="K627:K632"/>
-    <mergeCell ref="A615:A620"/>
-    <mergeCell ref="B615:B620"/>
-    <mergeCell ref="C615:C620"/>
-    <mergeCell ref="D615:D620"/>
-    <mergeCell ref="J579:J584"/>
-    <mergeCell ref="K579:K584"/>
-    <mergeCell ref="J603:J608"/>
-    <mergeCell ref="J609:J614"/>
-    <mergeCell ref="A585:A590"/>
-    <mergeCell ref="K609:K614"/>
-    <mergeCell ref="D609:D614"/>
-    <mergeCell ref="K621:K626"/>
-    <mergeCell ref="K615:K620"/>
-    <mergeCell ref="A591:A596"/>
-    <mergeCell ref="B591:B596"/>
-    <mergeCell ref="C591:C596"/>
-    <mergeCell ref="D591:D596"/>
-    <mergeCell ref="J591:J596"/>
-    <mergeCell ref="K591:K596"/>
-    <mergeCell ref="L603:L608"/>
-    <mergeCell ref="C609:C614"/>
-    <mergeCell ref="A567:A572"/>
-    <mergeCell ref="B567:B572"/>
-    <mergeCell ref="C567:C572"/>
-    <mergeCell ref="D567:D572"/>
-    <mergeCell ref="L591:L596"/>
-    <mergeCell ref="L579:L584"/>
-    <mergeCell ref="B585:B590"/>
-    <mergeCell ref="C585:C590"/>
-    <mergeCell ref="D585:D590"/>
-    <mergeCell ref="J585:J590"/>
-    <mergeCell ref="K585:K590"/>
-    <mergeCell ref="L585:L590"/>
-    <mergeCell ref="A579:A584"/>
-    <mergeCell ref="B579:B584"/>
-    <mergeCell ref="C579:C584"/>
-    <mergeCell ref="D579:D584"/>
-    <mergeCell ref="K573:K578"/>
-    <mergeCell ref="K567:K572"/>
-    <mergeCell ref="L567:L572"/>
-    <mergeCell ref="L573:L578"/>
-    <mergeCell ref="K597:K602"/>
-    <mergeCell ref="D603:D608"/>
-    <mergeCell ref="K603:K608"/>
-    <mergeCell ref="A609:A614"/>
-    <mergeCell ref="B609:B614"/>
-    <mergeCell ref="A573:A578"/>
-    <mergeCell ref="B573:B578"/>
-    <mergeCell ref="C573:C578"/>
-    <mergeCell ref="D573:D578"/>
-    <mergeCell ref="J573:J578"/>
-    <mergeCell ref="K549:K554"/>
-    <mergeCell ref="L549:L554"/>
-    <mergeCell ref="J543:J548"/>
-    <mergeCell ref="J531:J536"/>
-    <mergeCell ref="K531:K536"/>
-    <mergeCell ref="L531:L536"/>
-    <mergeCell ref="J537:J542"/>
-    <mergeCell ref="K537:K542"/>
-    <mergeCell ref="L537:L542"/>
-    <mergeCell ref="A549:A554"/>
-    <mergeCell ref="B549:B554"/>
-    <mergeCell ref="C549:C554"/>
-    <mergeCell ref="D549:D554"/>
-    <mergeCell ref="J549:J554"/>
-    <mergeCell ref="K555:K560"/>
-    <mergeCell ref="L555:L560"/>
-    <mergeCell ref="A561:A566"/>
-    <mergeCell ref="B561:B566"/>
-    <mergeCell ref="C561:C566"/>
-    <mergeCell ref="D561:D566"/>
-    <mergeCell ref="J561:J566"/>
-    <mergeCell ref="K561:K566"/>
-    <mergeCell ref="L561:L566"/>
-    <mergeCell ref="J555:J560"/>
-    <mergeCell ref="A555:A560"/>
-    <mergeCell ref="B555:B560"/>
-    <mergeCell ref="C555:C560"/>
-    <mergeCell ref="D555:D560"/>
-    <mergeCell ref="A525:A530"/>
-    <mergeCell ref="B525:B530"/>
-    <mergeCell ref="K543:K548"/>
-    <mergeCell ref="L543:L548"/>
-    <mergeCell ref="A537:A542"/>
-    <mergeCell ref="B537:B542"/>
-    <mergeCell ref="C537:C542"/>
-    <mergeCell ref="D537:D542"/>
-    <mergeCell ref="A543:A548"/>
-    <mergeCell ref="B543:B548"/>
-    <mergeCell ref="C543:C548"/>
-    <mergeCell ref="D543:D548"/>
-    <mergeCell ref="A531:A536"/>
-    <mergeCell ref="B531:B536"/>
-    <mergeCell ref="C525:C530"/>
-    <mergeCell ref="D525:D530"/>
-    <mergeCell ref="J525:J530"/>
-    <mergeCell ref="K525:K530"/>
-    <mergeCell ref="L525:L530"/>
-    <mergeCell ref="C531:C536"/>
-    <mergeCell ref="D531:D536"/>
-    <mergeCell ref="L519:L524"/>
-    <mergeCell ref="A513:A518"/>
-    <mergeCell ref="B513:B518"/>
-    <mergeCell ref="A519:A524"/>
-    <mergeCell ref="B519:B524"/>
-    <mergeCell ref="C519:C524"/>
-    <mergeCell ref="D519:D524"/>
-    <mergeCell ref="J519:J524"/>
-    <mergeCell ref="K519:K524"/>
-    <mergeCell ref="C513:C518"/>
-    <mergeCell ref="D513:D518"/>
-    <mergeCell ref="J513:J518"/>
-    <mergeCell ref="A501:A506"/>
-    <mergeCell ref="B501:B506"/>
-    <mergeCell ref="C501:C506"/>
-    <mergeCell ref="D501:D506"/>
-    <mergeCell ref="J501:J506"/>
-    <mergeCell ref="K513:K518"/>
-    <mergeCell ref="L513:L518"/>
-    <mergeCell ref="A489:A494"/>
-    <mergeCell ref="B489:B494"/>
-    <mergeCell ref="K483:K488"/>
-    <mergeCell ref="L483:L488"/>
-    <mergeCell ref="K507:K512"/>
-    <mergeCell ref="J495:J500"/>
-    <mergeCell ref="K495:K500"/>
-    <mergeCell ref="L495:L500"/>
-    <mergeCell ref="K501:K506"/>
-    <mergeCell ref="L501:L506"/>
-    <mergeCell ref="L507:L512"/>
-    <mergeCell ref="A507:A512"/>
-    <mergeCell ref="B507:B512"/>
-    <mergeCell ref="C507:C512"/>
-    <mergeCell ref="D507:D512"/>
-    <mergeCell ref="J507:J512"/>
-    <mergeCell ref="A495:A500"/>
-    <mergeCell ref="B495:B500"/>
-    <mergeCell ref="C495:C500"/>
-    <mergeCell ref="D495:D500"/>
-    <mergeCell ref="J465:J470"/>
-    <mergeCell ref="K465:K470"/>
-    <mergeCell ref="L465:L470"/>
-    <mergeCell ref="K477:K482"/>
-    <mergeCell ref="L477:L482"/>
-    <mergeCell ref="L471:L476"/>
-    <mergeCell ref="D477:D482"/>
-    <mergeCell ref="J477:J482"/>
-    <mergeCell ref="D471:D476"/>
-    <mergeCell ref="J471:J476"/>
-    <mergeCell ref="K471:K476"/>
-    <mergeCell ref="C489:C494"/>
-    <mergeCell ref="D489:D494"/>
-    <mergeCell ref="J489:J494"/>
-    <mergeCell ref="K489:K494"/>
-    <mergeCell ref="D483:D488"/>
-    <mergeCell ref="C477:C482"/>
-    <mergeCell ref="L489:L494"/>
-    <mergeCell ref="J441:J446"/>
-    <mergeCell ref="K441:K446"/>
-    <mergeCell ref="L441:L446"/>
-    <mergeCell ref="J435:J440"/>
-    <mergeCell ref="D447:D452"/>
-    <mergeCell ref="J447:J452"/>
-    <mergeCell ref="K447:K452"/>
-    <mergeCell ref="L447:L452"/>
-    <mergeCell ref="A453:A458"/>
-    <mergeCell ref="B453:B458"/>
-    <mergeCell ref="C453:C458"/>
-    <mergeCell ref="D453:D458"/>
-    <mergeCell ref="J453:J458"/>
-    <mergeCell ref="K453:K458"/>
-    <mergeCell ref="L453:L458"/>
-    <mergeCell ref="A459:A464"/>
-    <mergeCell ref="B459:B464"/>
-    <mergeCell ref="C459:C464"/>
-    <mergeCell ref="D459:D464"/>
-    <mergeCell ref="J459:J464"/>
-    <mergeCell ref="K459:K464"/>
-    <mergeCell ref="L459:L464"/>
-    <mergeCell ref="K423:K428"/>
-    <mergeCell ref="L423:L428"/>
-    <mergeCell ref="A429:A434"/>
-    <mergeCell ref="B429:B434"/>
-    <mergeCell ref="C429:C434"/>
-    <mergeCell ref="D429:D434"/>
-    <mergeCell ref="J429:J434"/>
-    <mergeCell ref="K429:K434"/>
-    <mergeCell ref="L429:L434"/>
-    <mergeCell ref="A423:A428"/>
-    <mergeCell ref="K435:K440"/>
-    <mergeCell ref="L435:L440"/>
-    <mergeCell ref="L411:L416"/>
-    <mergeCell ref="A417:A422"/>
-    <mergeCell ref="B417:B422"/>
-    <mergeCell ref="C417:C422"/>
-    <mergeCell ref="D417:D422"/>
-    <mergeCell ref="J417:J422"/>
-    <mergeCell ref="K417:K422"/>
-    <mergeCell ref="L417:L422"/>
-    <mergeCell ref="A411:A416"/>
-    <mergeCell ref="B411:B416"/>
-    <mergeCell ref="C411:C416"/>
-    <mergeCell ref="D411:D416"/>
-    <mergeCell ref="J411:J416"/>
-    <mergeCell ref="K411:K416"/>
-    <mergeCell ref="J423:J428"/>
-    <mergeCell ref="K381:K386"/>
-    <mergeCell ref="L381:L386"/>
-    <mergeCell ref="L387:L392"/>
-    <mergeCell ref="L393:L398"/>
-    <mergeCell ref="D387:D392"/>
-    <mergeCell ref="K405:K410"/>
-    <mergeCell ref="L405:L410"/>
-    <mergeCell ref="A399:A404"/>
-    <mergeCell ref="B399:B404"/>
-    <mergeCell ref="C399:C404"/>
-    <mergeCell ref="D399:D404"/>
-    <mergeCell ref="J399:J404"/>
-    <mergeCell ref="K399:K404"/>
-    <mergeCell ref="A393:A398"/>
-    <mergeCell ref="B393:B398"/>
-    <mergeCell ref="C405:C410"/>
-    <mergeCell ref="D405:D410"/>
-    <mergeCell ref="J405:J410"/>
-    <mergeCell ref="C393:C398"/>
-    <mergeCell ref="D393:D398"/>
-    <mergeCell ref="J393:J398"/>
-    <mergeCell ref="D381:D386"/>
-    <mergeCell ref="L399:L404"/>
-    <mergeCell ref="L375:L380"/>
-    <mergeCell ref="K387:K392"/>
-    <mergeCell ref="K375:K380"/>
-    <mergeCell ref="K393:K398"/>
-    <mergeCell ref="A345:A350"/>
-    <mergeCell ref="A363:A368"/>
-    <mergeCell ref="B363:B368"/>
-    <mergeCell ref="C363:C368"/>
-    <mergeCell ref="D363:D368"/>
-    <mergeCell ref="B345:B350"/>
-    <mergeCell ref="C345:C350"/>
-    <mergeCell ref="D345:D350"/>
-    <mergeCell ref="L369:L374"/>
-    <mergeCell ref="K345:K350"/>
-    <mergeCell ref="L345:L350"/>
-    <mergeCell ref="K357:K362"/>
-    <mergeCell ref="L357:L362"/>
-    <mergeCell ref="K363:K368"/>
-    <mergeCell ref="L363:L368"/>
-    <mergeCell ref="K369:K374"/>
-    <mergeCell ref="L351:L356"/>
-    <mergeCell ref="A357:A362"/>
-    <mergeCell ref="B357:B362"/>
-    <mergeCell ref="C357:C362"/>
-    <mergeCell ref="D357:D362"/>
-    <mergeCell ref="J357:J362"/>
-    <mergeCell ref="K351:K356"/>
-    <mergeCell ref="A351:A356"/>
-    <mergeCell ref="B351:B356"/>
-    <mergeCell ref="C351:C356"/>
-    <mergeCell ref="D351:D356"/>
-    <mergeCell ref="C387:C392"/>
-    <mergeCell ref="K333:K338"/>
-    <mergeCell ref="A327:A332"/>
-    <mergeCell ref="B327:B332"/>
-    <mergeCell ref="C327:C332"/>
-    <mergeCell ref="D327:D332"/>
-    <mergeCell ref="A333:A338"/>
-    <mergeCell ref="B333:B338"/>
-    <mergeCell ref="K321:K326"/>
-    <mergeCell ref="L321:L326"/>
-    <mergeCell ref="L333:L338"/>
-    <mergeCell ref="A339:A344"/>
-    <mergeCell ref="B339:B344"/>
-    <mergeCell ref="C339:C344"/>
-    <mergeCell ref="D339:D344"/>
-    <mergeCell ref="J339:J344"/>
-    <mergeCell ref="K339:K344"/>
-    <mergeCell ref="L339:L344"/>
-    <mergeCell ref="J327:J332"/>
-    <mergeCell ref="K327:K332"/>
-    <mergeCell ref="L327:L332"/>
-    <mergeCell ref="C333:C338"/>
-    <mergeCell ref="D333:D338"/>
-    <mergeCell ref="J333:J338"/>
-    <mergeCell ref="B291:B296"/>
-    <mergeCell ref="C291:C296"/>
-    <mergeCell ref="D291:D296"/>
-    <mergeCell ref="J291:J296"/>
-    <mergeCell ref="K291:K296"/>
-    <mergeCell ref="L291:L296"/>
-    <mergeCell ref="J297:J302"/>
-    <mergeCell ref="K297:K302"/>
-    <mergeCell ref="L297:L302"/>
-    <mergeCell ref="K303:K308"/>
-    <mergeCell ref="L303:L308"/>
-    <mergeCell ref="L309:L314"/>
-    <mergeCell ref="J303:J308"/>
-    <mergeCell ref="K315:K320"/>
-    <mergeCell ref="L315:L320"/>
-    <mergeCell ref="A321:A326"/>
-    <mergeCell ref="B321:B326"/>
-    <mergeCell ref="C321:C326"/>
-    <mergeCell ref="D321:D326"/>
-    <mergeCell ref="J321:J326"/>
-    <mergeCell ref="J315:J320"/>
-    <mergeCell ref="A309:A314"/>
-    <mergeCell ref="B309:B314"/>
-    <mergeCell ref="C309:C314"/>
-    <mergeCell ref="D309:D314"/>
-    <mergeCell ref="J309:J314"/>
-    <mergeCell ref="K309:K314"/>
-    <mergeCell ref="A315:A320"/>
-    <mergeCell ref="B315:B320"/>
-    <mergeCell ref="C315:C320"/>
-    <mergeCell ref="D315:D320"/>
-    <mergeCell ref="L279:L284"/>
-    <mergeCell ref="A273:A278"/>
-    <mergeCell ref="B273:B278"/>
-    <mergeCell ref="C285:C290"/>
-    <mergeCell ref="D285:D290"/>
-    <mergeCell ref="J285:J290"/>
-    <mergeCell ref="K285:K290"/>
-    <mergeCell ref="A285:A290"/>
-    <mergeCell ref="B285:B290"/>
-    <mergeCell ref="L285:L290"/>
-    <mergeCell ref="A279:A284"/>
-    <mergeCell ref="B279:B284"/>
-    <mergeCell ref="C279:C284"/>
-    <mergeCell ref="D279:D284"/>
-    <mergeCell ref="J279:J284"/>
-    <mergeCell ref="K279:K284"/>
-    <mergeCell ref="K231:K236"/>
-    <mergeCell ref="L231:L236"/>
-    <mergeCell ref="A237:A242"/>
-    <mergeCell ref="J237:J242"/>
-    <mergeCell ref="L249:L254"/>
-    <mergeCell ref="A243:A248"/>
-    <mergeCell ref="B243:B248"/>
-    <mergeCell ref="C243:C248"/>
-    <mergeCell ref="D243:D248"/>
-    <mergeCell ref="K243:K248"/>
-    <mergeCell ref="L243:L248"/>
-    <mergeCell ref="L273:L278"/>
-    <mergeCell ref="K255:K260"/>
-    <mergeCell ref="L255:L260"/>
-    <mergeCell ref="A249:A254"/>
-    <mergeCell ref="B249:B254"/>
-    <mergeCell ref="K237:K242"/>
-    <mergeCell ref="L237:L242"/>
-    <mergeCell ref="A231:A236"/>
-    <mergeCell ref="B231:B236"/>
-    <mergeCell ref="C231:C236"/>
-    <mergeCell ref="D231:D236"/>
-    <mergeCell ref="J231:J236"/>
-    <mergeCell ref="A225:A230"/>
-    <mergeCell ref="B225:B230"/>
-    <mergeCell ref="C225:C230"/>
-    <mergeCell ref="D225:D230"/>
-    <mergeCell ref="J225:J230"/>
-    <mergeCell ref="B237:B242"/>
-    <mergeCell ref="A267:A272"/>
-    <mergeCell ref="B267:B272"/>
-    <mergeCell ref="C267:C272"/>
-    <mergeCell ref="D267:D272"/>
-    <mergeCell ref="J267:J272"/>
-    <mergeCell ref="K267:K272"/>
-    <mergeCell ref="A255:A260"/>
-    <mergeCell ref="B255:B260"/>
-    <mergeCell ref="C255:C260"/>
-    <mergeCell ref="D255:D260"/>
-    <mergeCell ref="J255:J260"/>
-    <mergeCell ref="C237:C242"/>
-    <mergeCell ref="D237:D242"/>
-    <mergeCell ref="K261:K266"/>
-    <mergeCell ref="L261:L266"/>
-    <mergeCell ref="L267:L272"/>
-    <mergeCell ref="K219:K224"/>
-    <mergeCell ref="L219:L224"/>
-    <mergeCell ref="A213:A218"/>
-    <mergeCell ref="B213:B218"/>
-    <mergeCell ref="C213:C218"/>
-    <mergeCell ref="D213:D218"/>
-    <mergeCell ref="J213:J218"/>
-    <mergeCell ref="K213:K218"/>
-    <mergeCell ref="B219:B224"/>
-    <mergeCell ref="C219:C224"/>
-    <mergeCell ref="D219:D224"/>
-    <mergeCell ref="L213:L218"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="D195:D200"/>
-    <mergeCell ref="J195:J200"/>
-    <mergeCell ref="K225:K230"/>
-    <mergeCell ref="L225:L230"/>
-    <mergeCell ref="A219:A224"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="C177:C182"/>
-    <mergeCell ref="D171:D176"/>
-    <mergeCell ref="J171:J176"/>
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="B165:B170"/>
-    <mergeCell ref="L183:L188"/>
-    <mergeCell ref="A201:A206"/>
-    <mergeCell ref="B201:B206"/>
-    <mergeCell ref="C201:C206"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="K201:K206"/>
-    <mergeCell ref="L201:L206"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="C183:C188"/>
-    <mergeCell ref="L207:L212"/>
-    <mergeCell ref="K189:K194"/>
-    <mergeCell ref="C207:C212"/>
-    <mergeCell ref="D207:D212"/>
-    <mergeCell ref="J207:J212"/>
-    <mergeCell ref="K207:K212"/>
-    <mergeCell ref="L189:L194"/>
-    <mergeCell ref="K195:K200"/>
-    <mergeCell ref="L195:L200"/>
-    <mergeCell ref="C189:C194"/>
-    <mergeCell ref="D189:D194"/>
-    <mergeCell ref="J189:J194"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="L153:L158"/>
-    <mergeCell ref="L165:L170"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="B153:B158"/>
-    <mergeCell ref="C153:C158"/>
-    <mergeCell ref="D153:D158"/>
-    <mergeCell ref="J153:J158"/>
-    <mergeCell ref="K153:K158"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="L159:L164"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="L135:L140"/>
-    <mergeCell ref="C129:C134"/>
-    <mergeCell ref="D177:D182"/>
-    <mergeCell ref="J177:J182"/>
-    <mergeCell ref="K177:K182"/>
-    <mergeCell ref="L177:L182"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="C171:C176"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="J165:J170"/>
-    <mergeCell ref="K165:K170"/>
-    <mergeCell ref="L171:L176"/>
-    <mergeCell ref="K171:K176"/>
-    <mergeCell ref="D129:D134"/>
-    <mergeCell ref="J129:J134"/>
-    <mergeCell ref="C159:C164"/>
-    <mergeCell ref="D159:D164"/>
-    <mergeCell ref="L111:L116"/>
-    <mergeCell ref="L141:L146"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="B147:B152"/>
-    <mergeCell ref="C147:C152"/>
-    <mergeCell ref="D147:D152"/>
-    <mergeCell ref="J147:J152"/>
-    <mergeCell ref="K147:K152"/>
-    <mergeCell ref="L147:L152"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="B141:B146"/>
-    <mergeCell ref="L129:L134"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="B135:B140"/>
-    <mergeCell ref="C135:C140"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="C111:C116"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="J111:J116"/>
-    <mergeCell ref="K117:K122"/>
-    <mergeCell ref="L117:L122"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="D123:D128"/>
-    <mergeCell ref="J123:J128"/>
-    <mergeCell ref="K123:K128"/>
-    <mergeCell ref="L123:L128"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="L87:L92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="D93:D98"/>
-    <mergeCell ref="J93:J98"/>
-    <mergeCell ref="K93:K98"/>
-    <mergeCell ref="L93:L98"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="C87:C92"/>
-    <mergeCell ref="D87:D92"/>
-    <mergeCell ref="J87:J92"/>
-    <mergeCell ref="K87:K92"/>
-    <mergeCell ref="D99:D104"/>
-    <mergeCell ref="J99:J104"/>
-    <mergeCell ref="K99:K104"/>
-    <mergeCell ref="L99:L104"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="L27:L32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="K33:K38"/>
-    <mergeCell ref="L33:L38"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="D105:D110"/>
-    <mergeCell ref="J105:J110"/>
-    <mergeCell ref="K105:K110"/>
-    <mergeCell ref="L105:L110"/>
-    <mergeCell ref="K57:K62"/>
-    <mergeCell ref="L57:L62"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="J63:J68"/>
-    <mergeCell ref="K63:K68"/>
-    <mergeCell ref="L63:L68"/>
-    <mergeCell ref="L69:L74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="J363:J368"/>
-    <mergeCell ref="J351:J356"/>
-    <mergeCell ref="J345:J350"/>
-    <mergeCell ref="J387:J392"/>
-    <mergeCell ref="L39:L44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="J45:J50"/>
-    <mergeCell ref="K45:K50"/>
-    <mergeCell ref="L45:L50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="K51:K56"/>
-    <mergeCell ref="L51:L56"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="J75:J80"/>
-    <mergeCell ref="K75:K80"/>
-    <mergeCell ref="L75:L80"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="J69:J74"/>
-    <mergeCell ref="K69:K74"/>
-    <mergeCell ref="C117:C122"/>
-    <mergeCell ref="J843:J848"/>
-    <mergeCell ref="J861:J866"/>
-    <mergeCell ref="J1203:J1208"/>
-    <mergeCell ref="J1221:J1226"/>
-    <mergeCell ref="J1155:J1160"/>
-    <mergeCell ref="J1143:J1148"/>
-    <mergeCell ref="J1083:J1088"/>
-    <mergeCell ref="J1101:J1106"/>
-    <mergeCell ref="J849:J854"/>
-    <mergeCell ref="J951:J956"/>
-    <mergeCell ref="J945:J950"/>
-    <mergeCell ref="J987:J992"/>
-    <mergeCell ref="J993:J998"/>
-    <mergeCell ref="J1077:J1082"/>
-    <mergeCell ref="J1059:J1064"/>
-    <mergeCell ref="J483:J488"/>
-    <mergeCell ref="J567:J572"/>
-    <mergeCell ref="J687:J692"/>
-    <mergeCell ref="J705:J710"/>
-    <mergeCell ref="J1053:J1058"/>
-    <mergeCell ref="J1107:J1112"/>
-    <mergeCell ref="J1167:J1172"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="D81:D86"/>
-    <mergeCell ref="K81:K86"/>
-    <mergeCell ref="L81:L86"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="J3:J8"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="J27:J32"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="L9:L14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K159:K164"/>
-    <mergeCell ref="K9:K14"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="J243:J248"/>
-    <mergeCell ref="J261:J266"/>
-    <mergeCell ref="J201:J206"/>
-    <mergeCell ref="J219:J224"/>
-    <mergeCell ref="J159:J164"/>
-    <mergeCell ref="J117:J122"/>
-    <mergeCell ref="K27:K32"/>
-    <mergeCell ref="K135:K140"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="J39:J44"/>
-    <mergeCell ref="K39:K44"/>
-    <mergeCell ref="J57:J62"/>
-    <mergeCell ref="K129:K134"/>
-    <mergeCell ref="C141:C146"/>
-    <mergeCell ref="D141:D146"/>
-    <mergeCell ref="J141:J146"/>
-    <mergeCell ref="K141:K146"/>
-    <mergeCell ref="D135:D140"/>
-    <mergeCell ref="J135:J140"/>
-    <mergeCell ref="J81:J86"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="K249:K254"/>
-    <mergeCell ref="A303:A308"/>
-    <mergeCell ref="B303:B308"/>
-    <mergeCell ref="C303:C308"/>
-    <mergeCell ref="D303:D308"/>
-    <mergeCell ref="A297:A302"/>
-    <mergeCell ref="B297:B302"/>
-    <mergeCell ref="C297:C302"/>
-    <mergeCell ref="D297:D302"/>
-    <mergeCell ref="A261:A266"/>
-    <mergeCell ref="B261:B266"/>
-    <mergeCell ref="C273:C278"/>
-    <mergeCell ref="D273:D278"/>
-    <mergeCell ref="J273:J278"/>
-    <mergeCell ref="K273:K278"/>
-    <mergeCell ref="A291:A296"/>
-    <mergeCell ref="C261:C266"/>
-    <mergeCell ref="D261:D266"/>
-    <mergeCell ref="C249:C254"/>
-    <mergeCell ref="D249:D254"/>
-    <mergeCell ref="J249:J254"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="K111:K116"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="D183:D188"/>
-    <mergeCell ref="J183:J188"/>
-    <mergeCell ref="K183:K188"/>
-    <mergeCell ref="A189:A194"/>
-    <mergeCell ref="B189:B194"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="C375:C380"/>
-    <mergeCell ref="D375:D380"/>
-    <mergeCell ref="C483:C488"/>
-    <mergeCell ref="C447:C452"/>
-    <mergeCell ref="B465:B470"/>
-    <mergeCell ref="C465:C470"/>
-    <mergeCell ref="A471:A476"/>
-    <mergeCell ref="B471:B476"/>
-    <mergeCell ref="C471:C476"/>
-    <mergeCell ref="A477:A482"/>
-    <mergeCell ref="B477:B482"/>
-    <mergeCell ref="A447:A452"/>
-    <mergeCell ref="B447:B452"/>
-    <mergeCell ref="A465:A470"/>
-    <mergeCell ref="A483:A488"/>
-    <mergeCell ref="B483:B488"/>
-    <mergeCell ref="B423:B428"/>
-    <mergeCell ref="C423:C428"/>
-    <mergeCell ref="D423:D428"/>
-    <mergeCell ref="A435:A440"/>
-    <mergeCell ref="B435:B440"/>
-    <mergeCell ref="C435:C440"/>
-    <mergeCell ref="D435:D440"/>
-    <mergeCell ref="A405:A410"/>
-    <mergeCell ref="B405:B410"/>
-    <mergeCell ref="A441:A446"/>
-    <mergeCell ref="B441:B446"/>
-    <mergeCell ref="C441:C446"/>
-    <mergeCell ref="D441:D446"/>
-    <mergeCell ref="D465:D470"/>
-    <mergeCell ref="C369:C374"/>
-    <mergeCell ref="D369:D374"/>
-    <mergeCell ref="J369:J374"/>
-    <mergeCell ref="A369:A374"/>
-    <mergeCell ref="B369:B374"/>
-    <mergeCell ref="A387:A392"/>
-    <mergeCell ref="B387:B392"/>
-    <mergeCell ref="A375:A380"/>
-    <mergeCell ref="B375:B380"/>
-    <mergeCell ref="J375:J380"/>
-    <mergeCell ref="J381:J386"/>
-    <mergeCell ref="A381:A386"/>
-    <mergeCell ref="B381:B386"/>
-    <mergeCell ref="C381:C386"/>
-    <mergeCell ref="A645:A650"/>
-    <mergeCell ref="B645:B650"/>
-    <mergeCell ref="C633:C638"/>
-    <mergeCell ref="D633:D638"/>
-    <mergeCell ref="A621:A626"/>
-    <mergeCell ref="B621:B626"/>
-    <mergeCell ref="C621:C626"/>
-    <mergeCell ref="D621:D626"/>
-    <mergeCell ref="A597:A602"/>
-    <mergeCell ref="B597:B602"/>
-    <mergeCell ref="C597:C602"/>
-    <mergeCell ref="D597:D602"/>
-    <mergeCell ref="J597:J602"/>
-    <mergeCell ref="J615:J620"/>
-    <mergeCell ref="J621:J626"/>
-    <mergeCell ref="A603:A608"/>
-    <mergeCell ref="B603:B608"/>
-    <mergeCell ref="C603:C608"/>
-    <mergeCell ref="B705:B710"/>
-    <mergeCell ref="C705:C710"/>
-    <mergeCell ref="A711:A716"/>
-    <mergeCell ref="D741:D746"/>
-    <mergeCell ref="A735:A740"/>
-    <mergeCell ref="B735:B740"/>
-    <mergeCell ref="C735:C740"/>
-    <mergeCell ref="D735:D740"/>
-    <mergeCell ref="D687:D692"/>
-    <mergeCell ref="B711:B716"/>
-    <mergeCell ref="C711:C716"/>
-    <mergeCell ref="D711:D716"/>
-    <mergeCell ref="D705:D710"/>
-    <mergeCell ref="A717:A722"/>
-    <mergeCell ref="B717:B722"/>
-    <mergeCell ref="A915:A920"/>
-    <mergeCell ref="B915:B920"/>
-    <mergeCell ref="C915:C920"/>
-    <mergeCell ref="D915:D920"/>
-    <mergeCell ref="A705:A710"/>
-    <mergeCell ref="A723:A728"/>
-    <mergeCell ref="B723:B728"/>
-    <mergeCell ref="C723:C728"/>
-    <mergeCell ref="A765:A770"/>
-    <mergeCell ref="B765:B770"/>
-    <mergeCell ref="C759:C764"/>
-    <mergeCell ref="D759:D764"/>
-    <mergeCell ref="C765:C770"/>
-    <mergeCell ref="D765:D770"/>
-    <mergeCell ref="C777:C782"/>
-    <mergeCell ref="D777:D782"/>
-    <mergeCell ref="A885:A890"/>
-    <mergeCell ref="C843:C848"/>
-    <mergeCell ref="D843:D848"/>
-    <mergeCell ref="K843:K848"/>
-    <mergeCell ref="K837:K842"/>
-    <mergeCell ref="A861:A866"/>
-    <mergeCell ref="B861:B866"/>
-    <mergeCell ref="C861:C866"/>
-    <mergeCell ref="D861:D866"/>
-    <mergeCell ref="J963:J968"/>
-    <mergeCell ref="J981:J986"/>
-    <mergeCell ref="A975:A980"/>
-    <mergeCell ref="B975:B980"/>
-    <mergeCell ref="C975:C980"/>
-    <mergeCell ref="D975:D980"/>
-    <mergeCell ref="C927:C932"/>
-    <mergeCell ref="B945:B950"/>
-    <mergeCell ref="C945:C950"/>
-    <mergeCell ref="A951:A956"/>
-    <mergeCell ref="A981:A986"/>
-    <mergeCell ref="B981:B986"/>
-    <mergeCell ref="C981:C986"/>
-    <mergeCell ref="B951:B956"/>
-    <mergeCell ref="C951:C956"/>
-    <mergeCell ref="A957:A962"/>
-    <mergeCell ref="B957:B962"/>
-    <mergeCell ref="A945:A950"/>
-    <mergeCell ref="A963:A968"/>
-    <mergeCell ref="B963:B968"/>
-    <mergeCell ref="C963:C968"/>
-    <mergeCell ref="D981:D986"/>
-    <mergeCell ref="D951:D956"/>
-    <mergeCell ref="D945:D950"/>
-    <mergeCell ref="A1029:A1034"/>
-    <mergeCell ref="A1125:A1130"/>
-    <mergeCell ref="B1125:B1130"/>
-    <mergeCell ref="C1113:C1118"/>
-    <mergeCell ref="D1113:D1118"/>
-    <mergeCell ref="B1143:B1148"/>
-    <mergeCell ref="C1143:C1148"/>
-    <mergeCell ref="D1143:D1148"/>
-    <mergeCell ref="C1083:C1088"/>
-    <mergeCell ref="D1083:D1088"/>
-    <mergeCell ref="K1083:K1088"/>
-    <mergeCell ref="K1077:K1082"/>
-    <mergeCell ref="A1101:A1106"/>
-    <mergeCell ref="B1101:B1106"/>
-    <mergeCell ref="C1101:C1106"/>
-    <mergeCell ref="D1101:D1106"/>
-    <mergeCell ref="A1077:A1082"/>
-    <mergeCell ref="B1077:B1082"/>
-    <mergeCell ref="C1077:C1082"/>
-    <mergeCell ref="D1077:D1082"/>
-    <mergeCell ref="A1041:A1046"/>
-    <mergeCell ref="A1035:A1040"/>
-    <mergeCell ref="A1053:A1058"/>
-    <mergeCell ref="B1053:B1058"/>
-    <mergeCell ref="C1053:C1058"/>
-    <mergeCell ref="D1053:D1058"/>
-    <mergeCell ref="A1107:A1112"/>
-    <mergeCell ref="B1107:B1112"/>
-    <mergeCell ref="C1107:C1112"/>
-    <mergeCell ref="D1107:D1112"/>
-    <mergeCell ref="K1107:K1112"/>
-    <mergeCell ref="A1095:A1100"/>
-    <mergeCell ref="C1215:C1220"/>
-    <mergeCell ref="D1215:D1220"/>
-    <mergeCell ref="D1167:D1172"/>
-    <mergeCell ref="B1191:B1196"/>
-    <mergeCell ref="C1191:C1196"/>
-    <mergeCell ref="D1191:D1196"/>
-    <mergeCell ref="D1185:D1190"/>
-    <mergeCell ref="A1197:A1202"/>
-    <mergeCell ref="B1197:B1202"/>
-    <mergeCell ref="A1395:A1400"/>
-    <mergeCell ref="B1395:B1400"/>
-    <mergeCell ref="C1395:C1400"/>
-    <mergeCell ref="D1395:D1400"/>
-    <mergeCell ref="A1185:A1190"/>
-    <mergeCell ref="A1203:A1208"/>
-    <mergeCell ref="B1203:B1208"/>
-    <mergeCell ref="C1203:C1208"/>
-    <mergeCell ref="A1245:A1250"/>
-    <mergeCell ref="B1245:B1250"/>
-    <mergeCell ref="C1239:C1244"/>
-    <mergeCell ref="D1239:D1244"/>
-    <mergeCell ref="A1299:A1304"/>
-    <mergeCell ref="A1305:A1310"/>
-    <mergeCell ref="A1365:A1370"/>
-    <mergeCell ref="B1365:B1370"/>
-    <mergeCell ref="C1353:C1358"/>
-    <mergeCell ref="D1353:D1358"/>
-    <mergeCell ref="B1383:B1388"/>
-    <mergeCell ref="C1383:C1388"/>
-    <mergeCell ref="D1383:D1388"/>
-    <mergeCell ref="C1323:C1328"/>
-    <mergeCell ref="D1323:D1328"/>
-    <mergeCell ref="K1323:K1328"/>
-    <mergeCell ref="K1317:K1322"/>
-    <mergeCell ref="A1341:A1346"/>
-    <mergeCell ref="B1341:B1346"/>
-    <mergeCell ref="C1341:C1346"/>
-    <mergeCell ref="D1341:D1346"/>
-    <mergeCell ref="K1341:K1346"/>
-    <mergeCell ref="K1335:K1340"/>
-    <mergeCell ref="A1461:A1466"/>
-    <mergeCell ref="B1461:B1466"/>
-    <mergeCell ref="C1461:C1466"/>
-    <mergeCell ref="D1461:D1466"/>
-    <mergeCell ref="A1455:A1460"/>
-    <mergeCell ref="B1455:B1460"/>
-    <mergeCell ref="C1455:C1460"/>
-    <mergeCell ref="D1455:D1460"/>
-    <mergeCell ref="A1425:A1430"/>
-    <mergeCell ref="A1443:A1448"/>
-    <mergeCell ref="B1443:B1448"/>
-    <mergeCell ref="C1443:C1448"/>
-    <mergeCell ref="C1407:C1412"/>
-    <mergeCell ref="B1425:B1430"/>
-    <mergeCell ref="C1425:C1430"/>
-    <mergeCell ref="A1431:A1436"/>
-    <mergeCell ref="B1431:B1436"/>
-    <mergeCell ref="C1431:C1436"/>
-    <mergeCell ref="A1437:A1442"/>
-    <mergeCell ref="B1437:B1442"/>
-    <mergeCell ref="J1323:J1328"/>
-    <mergeCell ref="J1341:J1346"/>
-    <mergeCell ref="J1335:J1340"/>
-    <mergeCell ref="J1455:J1460"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/6高炉/炉顶装料作业日报表.xlsx
+++ b/excel/finished/6高炉/炉顶装料作业日报表.xlsx
@@ -181,14 +181,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +221,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,7 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,44 +247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,9 +261,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,15 +277,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,7 +292,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -348,24 +309,56 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -384,19 +377,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,90 +461,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -510,7 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,13 +485,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,31 +533,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +641,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -665,8 +682,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -674,11 +693,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,223 +729,199 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,9 +1267,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="12">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="J1" s="12" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
